--- a/veri/ankarabbSoruCevapVeriSeti-v02.xlsx
+++ b/veri/ankarabbSoruCevapVeriSeti-v02.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GulnurOgur\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alierenekinci\Desktop\Project\ThreadTeknofest\veri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F28F8B-4261-4214-A1E7-7FF01A755560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF90F33D-FF0A-41E3-AB84-5708B8C3490A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tüm Sorular" sheetId="12" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="1205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="1206">
   <si>
     <t>ÖĞRENCİ ABONMAN KARTINDAN YARARLANMA ŞARTLARI NELERDİR?</t>
   </si>
@@ -4052,6 +4052,9 @@
   </si>
   <si>
     <t>Ne zaman atıksu bedeli alınmaya başlanmıştır</t>
+  </si>
+  <si>
+    <t>sonsatır</t>
   </si>
 </sst>
 </file>
@@ -4456,21 +4459,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13174E5A-14B7-450C-AC04-CD33601AE315}">
-  <dimension ref="A1:C859"/>
+  <dimension ref="A1:C860"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B727" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="C753" sqref="C753"/>
+    <sheetView tabSelected="1" topLeftCell="B846" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="C860" sqref="C860"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="125.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5546875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="27.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="125.69140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.53515625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>329</v>
       </c>
@@ -4481,7 +4484,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>330</v>
       </c>
@@ -4492,35 +4495,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>506</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>505</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>507</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>508</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>331</v>
       </c>
@@ -4531,42 +4534,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>509</v>
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>510</v>
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>511</v>
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>512</v>
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>513</v>
       </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>332</v>
       </c>
@@ -4577,35 +4580,35 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>514</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>515</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>516</v>
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>517</v>
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>333</v>
       </c>
@@ -4616,35 +4619,35 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>521</v>
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>518</v>
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>520</v>
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>519</v>
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>334</v>
       </c>
@@ -4655,56 +4658,56 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
         <v>555</v>
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>522</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>523</v>
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>524</v>
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>525</v>
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
         <v>526</v>
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
         <v>527</v>
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>335</v>
       </c>
@@ -4715,49 +4718,49 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
         <v>528</v>
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
         <v>529</v>
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
         <v>537</v>
       </c>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
         <v>531</v>
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
         <v>532</v>
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
         <v>533</v>
       </c>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>336</v>
       </c>
@@ -4768,35 +4771,35 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
         <v>534</v>
       </c>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
         <v>535</v>
       </c>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
         <v>530</v>
       </c>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>337</v>
       </c>
@@ -4807,119 +4810,119 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
         <v>538</v>
       </c>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
         <v>539</v>
       </c>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
         <v>540</v>
       </c>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
         <v>541</v>
       </c>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
         <v>542</v>
       </c>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
         <v>543</v>
       </c>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
         <v>544</v>
       </c>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
         <v>545</v>
       </c>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
         <v>547</v>
       </c>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
         <v>546</v>
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
         <v>548</v>
       </c>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="2"/>
       <c r="B55" s="2" t="s">
         <v>549</v>
       </c>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A56" s="10"/>
       <c r="B56" s="12" t="s">
         <v>550</v>
       </c>
       <c r="C56" s="10"/>
     </row>
-    <row r="57" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A57" s="12"/>
       <c r="B57" s="12" t="s">
         <v>551</v>
       </c>
       <c r="C57" s="12"/>
     </row>
-    <row r="58" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A58" s="12"/>
       <c r="B58" s="12" t="s">
         <v>552</v>
       </c>
       <c r="C58" s="12"/>
     </row>
-    <row r="59" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A59" s="12"/>
       <c r="B59" s="12" t="s">
         <v>553</v>
       </c>
       <c r="C59" s="12"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>338</v>
       </c>
@@ -4930,28 +4933,28 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="12" t="s">
         <v>554</v>
       </c>
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" s="2"/>
       <c r="B62" s="12" t="s">
         <v>556</v>
       </c>
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" s="2"/>
       <c r="B63" s="12" t="s">
         <v>557</v>
       </c>
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>339</v>
       </c>
@@ -4962,42 +4965,42 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="2"/>
       <c r="B65" s="12" t="s">
         <v>560</v>
       </c>
       <c r="C65" s="2"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" s="2"/>
       <c r="B66" s="12" t="s">
         <v>558</v>
       </c>
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" s="2"/>
       <c r="B67" s="12" t="s">
         <v>559</v>
       </c>
       <c r="C67" s="2"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" s="2"/>
       <c r="B68" s="12" t="s">
         <v>561</v>
       </c>
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" s="2"/>
       <c r="B69" s="12" t="s">
         <v>562</v>
       </c>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>340</v>
       </c>
@@ -5008,28 +5011,28 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" s="2"/>
       <c r="B71" s="12" t="s">
         <v>563</v>
       </c>
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" s="2"/>
       <c r="B72" s="12" t="s">
         <v>564</v>
       </c>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" s="2"/>
       <c r="B73" s="12" t="s">
         <v>565</v>
       </c>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>341</v>
       </c>
@@ -5040,14 +5043,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" s="2"/>
       <c r="B75" s="12" t="s">
         <v>566</v>
       </c>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>342</v>
       </c>
@@ -5058,49 +5061,49 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" s="2"/>
       <c r="B77" s="12" t="s">
         <v>567</v>
       </c>
       <c r="C77" s="2"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
         <v>568</v>
       </c>
       <c r="C78" s="2"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" s="2"/>
       <c r="B79" s="12" t="s">
         <v>569</v>
       </c>
       <c r="C79" s="2"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
         <v>570</v>
       </c>
       <c r="C80" s="2"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" s="2"/>
       <c r="B81" s="12" t="s">
         <v>571</v>
       </c>
       <c r="C81" s="2"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
         <v>572</v>
       </c>
       <c r="C82" s="2"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>343</v>
       </c>
@@ -5111,42 +5114,42 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
         <v>573</v>
       </c>
       <c r="C84" s="2"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" s="2"/>
       <c r="B85" s="2" t="s">
         <v>574</v>
       </c>
       <c r="C85" s="2"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
         <v>575</v>
       </c>
       <c r="C86" s="2"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" s="2"/>
       <c r="B87" s="2" t="s">
         <v>576</v>
       </c>
       <c r="C87" s="2"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
         <v>577</v>
       </c>
       <c r="C88" s="2"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
         <v>344</v>
       </c>
@@ -5157,49 +5160,49 @@
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
         <v>578</v>
       </c>
       <c r="C90" s="2"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" s="2"/>
       <c r="B91" s="2" t="s">
         <v>579</v>
       </c>
       <c r="C91" s="2"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" s="2"/>
       <c r="B92" s="2" t="s">
         <v>580</v>
       </c>
       <c r="C92" s="2"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" s="2"/>
       <c r="B93" s="2" t="s">
         <v>581</v>
       </c>
       <c r="C93" s="2"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
         <v>582</v>
       </c>
       <c r="C94" s="2"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" s="2"/>
       <c r="B95" s="2" t="s">
         <v>583</v>
       </c>
       <c r="C95" s="2"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
         <v>345</v>
       </c>
@@ -5210,49 +5213,49 @@
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" s="2"/>
       <c r="B97" s="2" t="s">
         <v>584</v>
       </c>
       <c r="C97" s="2"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" s="2"/>
       <c r="B98" s="2" t="s">
         <v>585</v>
       </c>
       <c r="C98" s="2"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" s="2"/>
       <c r="B99" s="2" t="s">
         <v>586</v>
       </c>
       <c r="C99" s="2"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
         <v>589</v>
       </c>
       <c r="C100" s="2"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" s="2"/>
       <c r="B101" s="2" t="s">
         <v>587</v>
       </c>
       <c r="C101" s="2"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
         <v>588</v>
       </c>
       <c r="C102" s="2"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
         <v>346</v>
       </c>
@@ -5263,49 +5266,49 @@
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" s="2"/>
       <c r="B104" s="2" t="s">
         <v>590</v>
       </c>
       <c r="C104" s="2"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" s="2"/>
       <c r="B105" s="2" t="s">
         <v>591</v>
       </c>
       <c r="C105" s="2"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
         <v>592</v>
       </c>
       <c r="C106" s="2"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" s="2"/>
       <c r="B107" s="2" t="s">
         <v>593</v>
       </c>
       <c r="C107" s="2"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
         <v>594</v>
       </c>
       <c r="C108" s="2"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" s="2"/>
       <c r="B109" s="2" t="s">
         <v>595</v>
       </c>
       <c r="C109" s="2"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
         <v>347</v>
       </c>
@@ -5316,49 +5319,49 @@
         <v>40</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" s="2"/>
       <c r="B111" s="2" t="s">
         <v>596</v>
       </c>
       <c r="C111" s="2"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" s="2"/>
       <c r="B112" s="2" t="s">
         <v>597</v>
       </c>
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" s="2"/>
       <c r="B113" s="2" t="s">
         <v>598</v>
       </c>
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
         <v>599</v>
       </c>
       <c r="C114" s="2"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
         <v>600</v>
       </c>
       <c r="C115" s="2"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
         <v>601</v>
       </c>
       <c r="C116" s="2"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" s="2" t="s">
         <v>348</v>
       </c>
@@ -5369,301 +5372,301 @@
         <v>43</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
         <v>602</v>
       </c>
       <c r="C118" s="2"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" s="2"/>
       <c r="B119" s="2" t="s">
         <v>603</v>
       </c>
       <c r="C119" s="2"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" s="2"/>
       <c r="B120" s="2" t="s">
         <v>604</v>
       </c>
       <c r="C120" s="2"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" s="2"/>
       <c r="B121" s="2" t="s">
         <v>605</v>
       </c>
       <c r="C121" s="2"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" s="2"/>
       <c r="B122" s="2" t="s">
         <v>606</v>
       </c>
       <c r="C122" s="2"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" s="2"/>
       <c r="B123" s="2" t="s">
         <v>607</v>
       </c>
       <c r="C123" s="2"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124" s="2"/>
       <c r="B124" s="2" t="s">
         <v>621</v>
       </c>
       <c r="C124" s="2"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125" s="2"/>
       <c r="B125" s="2" t="s">
         <v>620</v>
       </c>
       <c r="C125" s="2"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126" s="2"/>
       <c r="B126" s="2" t="s">
         <v>622</v>
       </c>
       <c r="C126" s="2"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" s="2"/>
       <c r="B127" s="2" t="s">
         <v>623</v>
       </c>
       <c r="C127" s="2"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" s="2"/>
       <c r="B128" s="2" t="s">
         <v>624</v>
       </c>
       <c r="C128" s="2"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" s="2"/>
       <c r="B129" s="2" t="s">
         <v>625</v>
       </c>
       <c r="C129" s="2"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" s="2"/>
       <c r="B130" s="2" t="s">
         <v>626</v>
       </c>
       <c r="C130" s="2"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" s="2"/>
       <c r="B131" s="2" t="s">
         <v>627</v>
       </c>
       <c r="C131" s="2"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" s="2"/>
       <c r="B132" s="2" t="s">
         <v>628</v>
       </c>
       <c r="C132" s="2"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" s="2"/>
       <c r="B133" s="2" t="s">
         <v>629</v>
       </c>
       <c r="C133" s="2"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" s="2"/>
       <c r="B134" s="2" t="s">
         <v>630</v>
       </c>
       <c r="C134" s="2"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" s="2"/>
       <c r="B135" s="2" t="s">
         <v>631</v>
       </c>
       <c r="C135" s="2"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" s="2"/>
       <c r="B136" s="2" t="s">
         <v>608</v>
       </c>
       <c r="C136" s="2"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137" s="2"/>
       <c r="B137" s="2" t="s">
         <v>609</v>
       </c>
       <c r="C137" s="2"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138" s="2"/>
       <c r="B138" s="2" t="s">
         <v>610</v>
       </c>
       <c r="C138" s="2"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139" s="2"/>
       <c r="B139" s="2" t="s">
         <v>611</v>
       </c>
       <c r="C139" s="2"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140" s="2"/>
       <c r="B140" s="2" t="s">
         <v>612</v>
       </c>
       <c r="C140" s="2"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141" s="2"/>
       <c r="B141" s="2" t="s">
         <v>613</v>
       </c>
       <c r="C141" s="2"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142" s="2"/>
       <c r="B142" s="2" t="s">
         <v>614</v>
       </c>
       <c r="C142" s="2"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143" s="2"/>
       <c r="B143" s="2" t="s">
         <v>615</v>
       </c>
       <c r="C143" s="2"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" s="2"/>
       <c r="B144" s="2" t="s">
         <v>616</v>
       </c>
       <c r="C144" s="2"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145" s="2"/>
       <c r="B145" s="2" t="s">
         <v>617</v>
       </c>
       <c r="C145" s="2"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146" s="2"/>
       <c r="B146" s="2" t="s">
         <v>618</v>
       </c>
       <c r="C146" s="2"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147" s="2"/>
       <c r="B147" s="2" t="s">
         <v>619</v>
       </c>
       <c r="C147" s="2"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148" s="2"/>
       <c r="B148" s="2" t="s">
         <v>632</v>
       </c>
       <c r="C148" s="2"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149" s="2"/>
       <c r="B149" s="2" t="s">
         <v>633</v>
       </c>
       <c r="C149" s="2"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150" s="2"/>
       <c r="B150" s="2" t="s">
         <v>634</v>
       </c>
       <c r="C150" s="2"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151" s="2"/>
       <c r="B151" s="2" t="s">
         <v>635</v>
       </c>
       <c r="C151" s="2"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152" s="2"/>
       <c r="B152" s="2" t="s">
         <v>636</v>
       </c>
       <c r="C152" s="2"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153" s="2"/>
       <c r="B153" s="2" t="s">
         <v>637</v>
       </c>
       <c r="C153" s="2"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154" s="2"/>
       <c r="B154" s="2" t="s">
         <v>638</v>
       </c>
       <c r="C154" s="2"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155" s="2"/>
       <c r="B155" s="2" t="s">
         <v>639</v>
       </c>
       <c r="C155" s="2"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156" s="2"/>
       <c r="B156" s="2" t="s">
         <v>640</v>
       </c>
       <c r="C156" s="2"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157" s="2"/>
       <c r="B157" s="2" t="s">
         <v>641</v>
       </c>
       <c r="C157" s="2"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158" s="2"/>
       <c r="B158" s="2" t="s">
         <v>642</v>
       </c>
       <c r="C158" s="2"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159" s="2"/>
       <c r="B159" s="2" t="s">
         <v>643</v>
       </c>
       <c r="C159" s="2"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160" s="2" t="s">
         <v>349</v>
       </c>
@@ -5674,49 +5677,49 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161" s="2"/>
       <c r="B161" s="2" t="s">
         <v>645</v>
       </c>
       <c r="C161" s="2"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162" s="2"/>
       <c r="B162" s="2" t="s">
         <v>644</v>
       </c>
       <c r="C162" s="2"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163" s="2"/>
       <c r="B163" s="2" t="s">
         <v>646</v>
       </c>
       <c r="C163" s="2"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164" s="2"/>
       <c r="B164" s="2" t="s">
         <v>647</v>
       </c>
       <c r="C164" s="2"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165" s="2"/>
       <c r="B165" s="2" t="s">
         <v>648</v>
       </c>
       <c r="C165" s="2"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166" s="2"/>
       <c r="B166" s="2" t="s">
         <v>649</v>
       </c>
       <c r="C166" s="2"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167" s="2" t="s">
         <v>350</v>
       </c>
@@ -5727,49 +5730,49 @@
         <v>47</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168" s="2"/>
       <c r="B168" s="2" t="s">
         <v>650</v>
       </c>
       <c r="C168" s="2"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169" s="2"/>
       <c r="B169" s="2" t="s">
         <v>652</v>
       </c>
       <c r="C169" s="2"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170" s="2"/>
       <c r="B170" s="2" t="s">
         <v>651</v>
       </c>
       <c r="C170" s="2"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171" s="2"/>
       <c r="B171" s="2" t="s">
         <v>653</v>
       </c>
       <c r="C171" s="2"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172" s="2"/>
       <c r="B172" s="2" t="s">
         <v>654</v>
       </c>
       <c r="C172" s="2"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173" s="2"/>
       <c r="B173" s="2" t="s">
         <v>655</v>
       </c>
       <c r="C173" s="2"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174" s="2" t="s">
         <v>351</v>
       </c>
@@ -5780,49 +5783,49 @@
         <v>49</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175" s="2"/>
       <c r="B175" s="2" t="s">
         <v>657</v>
       </c>
       <c r="C175" s="2"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176" s="2"/>
       <c r="B176" s="2" t="s">
         <v>656</v>
       </c>
       <c r="C176" s="2"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177" s="2"/>
       <c r="B177" s="2" t="s">
         <v>658</v>
       </c>
       <c r="C177" s="2"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178" s="2"/>
       <c r="B178" s="2" t="s">
         <v>659</v>
       </c>
       <c r="C178" s="2"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179" s="2"/>
       <c r="B179" s="2" t="s">
         <v>660</v>
       </c>
       <c r="C179" s="2"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180" s="2"/>
       <c r="B180" s="2" t="s">
         <v>661</v>
       </c>
       <c r="C180" s="2"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181" s="2" t="s">
         <v>352</v>
       </c>
@@ -5833,49 +5836,49 @@
         <v>50</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182" s="2"/>
       <c r="B182" s="2" t="s">
         <v>662</v>
       </c>
       <c r="C182" s="2"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183" s="2"/>
       <c r="B183" s="2" t="s">
         <v>664</v>
       </c>
       <c r="C183" s="2"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184" s="2"/>
       <c r="B184" s="2" t="s">
         <v>665</v>
       </c>
       <c r="C184" s="2"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185" s="2"/>
       <c r="B185" s="2" t="s">
         <v>666</v>
       </c>
       <c r="C185" s="2"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186" s="2"/>
       <c r="B186" s="2" t="s">
         <v>667</v>
       </c>
       <c r="C186" s="2"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187" s="2"/>
       <c r="B187" s="2" t="s">
         <v>668</v>
       </c>
       <c r="C187" s="2"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188" s="2" t="s">
         <v>353</v>
       </c>
@@ -5886,49 +5889,49 @@
         <v>52</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189" s="2"/>
       <c r="B189" s="2" t="s">
         <v>669</v>
       </c>
       <c r="C189" s="2"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190" s="2"/>
       <c r="B190" s="2" t="s">
         <v>670</v>
       </c>
       <c r="C190" s="2"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191" s="2"/>
       <c r="B191" s="2" t="s">
         <v>671</v>
       </c>
       <c r="C191" s="2"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192" s="2"/>
       <c r="B192" s="2" t="s">
         <v>672</v>
       </c>
       <c r="C192" s="2"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193" s="2"/>
       <c r="B193" s="2" t="s">
         <v>673</v>
       </c>
       <c r="C193" s="2"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194" s="2"/>
       <c r="B194" s="2" t="s">
         <v>674</v>
       </c>
       <c r="C194" s="2"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195" s="2" t="s">
         <v>354</v>
       </c>
@@ -5939,35 +5942,35 @@
         <v>54</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196" s="2"/>
       <c r="B196" s="2" t="s">
         <v>675</v>
       </c>
       <c r="C196" s="2"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197" s="2"/>
       <c r="B197" s="2" t="s">
         <v>676</v>
       </c>
       <c r="C197" s="2"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198" s="2"/>
       <c r="B198" s="2" t="s">
         <v>677</v>
       </c>
       <c r="C198" s="2"/>
     </row>
-    <row r="199" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A199" s="10"/>
       <c r="B199" s="12" t="s">
         <v>678</v>
       </c>
       <c r="C199" s="10"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200" s="2" t="s">
         <v>355</v>
       </c>
@@ -5978,14 +5981,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201" s="2"/>
       <c r="B201" s="2" t="s">
         <v>679</v>
       </c>
       <c r="C201" s="2"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A202" s="2" t="s">
         <v>356</v>
       </c>
@@ -5996,42 +5999,42 @@
         <v>58</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A203" s="2"/>
       <c r="B203" s="2" t="s">
         <v>680</v>
       </c>
       <c r="C203" s="2"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A204" s="2"/>
       <c r="B204" s="2" t="s">
         <v>681</v>
       </c>
       <c r="C204" s="2"/>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A205" s="2"/>
       <c r="B205" s="2" t="s">
         <v>683</v>
       </c>
       <c r="C205" s="2"/>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A206" s="2"/>
       <c r="B206" s="2" t="s">
         <v>682</v>
       </c>
       <c r="C206" s="2"/>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A207" s="2"/>
       <c r="B207" s="2" t="s">
         <v>684</v>
       </c>
       <c r="C207" s="2"/>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A208" s="2" t="s">
         <v>357</v>
       </c>
@@ -6042,42 +6045,42 @@
         <v>59</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A209" s="2"/>
       <c r="B209" s="2" t="s">
         <v>686</v>
       </c>
       <c r="C209" s="2"/>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A210" s="2"/>
       <c r="B210" s="2" t="s">
         <v>687</v>
       </c>
       <c r="C210" s="2"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A211" s="2"/>
       <c r="B211" s="2" t="s">
         <v>688</v>
       </c>
       <c r="C211" s="2"/>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A212" s="2"/>
       <c r="B212" s="2" t="s">
         <v>689</v>
       </c>
       <c r="C212" s="2"/>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A213" s="2"/>
       <c r="B213" s="2" t="s">
         <v>690</v>
       </c>
       <c r="C213" s="2"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A214" s="2" t="s">
         <v>358</v>
       </c>
@@ -6088,28 +6091,28 @@
         <v>61</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A215" s="2"/>
       <c r="B215" s="2" t="s">
         <v>692</v>
       </c>
       <c r="C215" s="2"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A216" s="2"/>
       <c r="B216" s="2" t="s">
         <v>691</v>
       </c>
       <c r="C216" s="2"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A217" s="2"/>
       <c r="B217" s="2" t="s">
         <v>693</v>
       </c>
       <c r="C217" s="2"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A218" s="2" t="s">
         <v>359</v>
       </c>
@@ -6120,35 +6123,35 @@
         <v>63</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A219" s="2"/>
       <c r="B219" s="2" t="s">
         <v>694</v>
       </c>
       <c r="C219" s="2"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A220" s="2"/>
       <c r="B220" s="2" t="s">
         <v>695</v>
       </c>
       <c r="C220" s="2"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A221" s="2"/>
       <c r="B221" s="2" t="s">
         <v>696</v>
       </c>
       <c r="C221" s="2"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A222" s="2"/>
       <c r="B222" s="2" t="s">
         <v>697</v>
       </c>
       <c r="C222" s="2"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A223" s="2" t="s">
         <v>360</v>
       </c>
@@ -6159,42 +6162,42 @@
         <v>64</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A224" s="2"/>
       <c r="B224" s="2" t="s">
         <v>699</v>
       </c>
       <c r="C224" s="2"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A225" s="2"/>
       <c r="B225" s="2" t="s">
         <v>700</v>
       </c>
       <c r="C225" s="2"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A226" s="2"/>
       <c r="B226" s="2" t="s">
         <v>701</v>
       </c>
       <c r="C226" s="2"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A227" s="2"/>
       <c r="B227" s="2" t="s">
         <v>702</v>
       </c>
       <c r="C227" s="2"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A228" s="2"/>
       <c r="B228" s="2" t="s">
         <v>703</v>
       </c>
       <c r="C228" s="2"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A229" s="2" t="s">
         <v>361</v>
       </c>
@@ -6205,42 +6208,42 @@
         <v>709</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A230" s="2"/>
       <c r="B230" s="2" t="s">
         <v>704</v>
       </c>
       <c r="C230" s="2"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A231" s="2"/>
       <c r="B231" s="2" t="s">
         <v>705</v>
       </c>
       <c r="C231" s="2"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A232" s="2"/>
       <c r="B232" s="2" t="s">
         <v>706</v>
       </c>
       <c r="C232" s="2"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A233" s="2"/>
       <c r="B233" s="2" t="s">
         <v>707</v>
       </c>
       <c r="C233" s="2"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A234" s="2"/>
       <c r="B234" s="2" t="s">
         <v>708</v>
       </c>
       <c r="C234" s="2"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A235" s="2" t="s">
         <v>362</v>
       </c>
@@ -6251,49 +6254,49 @@
         <v>67</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A236" s="2"/>
       <c r="B236" s="2" t="s">
         <v>710</v>
       </c>
       <c r="C236" s="2"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A237" s="2"/>
       <c r="B237" s="2" t="s">
         <v>711</v>
       </c>
       <c r="C237" s="2"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A238" s="2"/>
       <c r="B238" s="2" t="s">
         <v>712</v>
       </c>
       <c r="C238" s="2"/>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A239" s="2"/>
       <c r="B239" s="2" t="s">
         <v>713</v>
       </c>
       <c r="C239" s="2"/>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A240" s="2"/>
       <c r="B240" s="2" t="s">
         <v>714</v>
       </c>
       <c r="C240" s="2"/>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A241" s="2"/>
       <c r="B241" s="2" t="s">
         <v>715</v>
       </c>
       <c r="C241" s="2"/>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A242" s="2" t="s">
         <v>363</v>
       </c>
@@ -6304,42 +6307,42 @@
         <v>69</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A243" s="2"/>
       <c r="B243" s="2" t="s">
         <v>716</v>
       </c>
       <c r="C243" s="2"/>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A244" s="2"/>
       <c r="B244" s="2" t="s">
         <v>718</v>
       </c>
       <c r="C244" s="2"/>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A245" s="2"/>
       <c r="B245" s="2" t="s">
         <v>717</v>
       </c>
       <c r="C245" s="2"/>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A246" s="2"/>
       <c r="B246" s="2" t="s">
         <v>719</v>
       </c>
       <c r="C246" s="2"/>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A247" s="2"/>
       <c r="B247" s="2" t="s">
         <v>720</v>
       </c>
       <c r="C247" s="2"/>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A248" s="2" t="s">
         <v>364</v>
       </c>
@@ -6350,35 +6353,35 @@
         <v>71</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A249" s="2"/>
       <c r="B249" s="2" t="s">
         <v>723</v>
       </c>
       <c r="C249" s="2"/>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A250" s="2"/>
       <c r="B250" s="2" t="s">
         <v>724</v>
       </c>
       <c r="C250" s="2"/>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A251" s="2"/>
       <c r="B251" s="2" t="s">
         <v>722</v>
       </c>
       <c r="C251" s="2"/>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A252" s="2"/>
       <c r="B252" s="2" t="s">
         <v>721</v>
       </c>
       <c r="C252" s="2"/>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A253" s="2" t="s">
         <v>365</v>
       </c>
@@ -6389,42 +6392,42 @@
         <v>73</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A254" s="2"/>
       <c r="B254" s="2" t="s">
         <v>725</v>
       </c>
       <c r="C254" s="2"/>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A255" s="2"/>
       <c r="B255" s="2" t="s">
         <v>726</v>
       </c>
       <c r="C255" s="2"/>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A256" s="2"/>
       <c r="B256" s="2" t="s">
         <v>727</v>
       </c>
       <c r="C256" s="2"/>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A257" s="2"/>
       <c r="B257" s="2" t="s">
         <v>728</v>
       </c>
       <c r="C257" s="2"/>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A258" s="2"/>
       <c r="B258" s="2" t="s">
         <v>729</v>
       </c>
       <c r="C258" s="2"/>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A259" s="2" t="s">
         <v>366</v>
       </c>
@@ -6435,49 +6438,49 @@
         <v>75</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A260" s="2"/>
       <c r="B260" s="2" t="s">
         <v>730</v>
       </c>
       <c r="C260" s="2"/>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A261" s="2"/>
       <c r="B261" s="2" t="s">
         <v>731</v>
       </c>
       <c r="C261" s="2"/>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A262" s="2"/>
       <c r="B262" s="2" t="s">
         <v>732</v>
       </c>
       <c r="C262" s="2"/>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A263" s="2"/>
       <c r="B263" s="2" t="s">
         <v>733</v>
       </c>
       <c r="C263" s="2"/>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A264" s="2"/>
       <c r="B264" s="2" t="s">
         <v>734</v>
       </c>
       <c r="C264" s="2"/>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A265" s="2"/>
       <c r="B265" s="2" t="s">
         <v>735</v>
       </c>
       <c r="C265" s="2"/>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A266" s="2" t="s">
         <v>367</v>
       </c>
@@ -6488,42 +6491,42 @@
         <v>77</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A267" s="2"/>
       <c r="B267" s="2" t="s">
         <v>736</v>
       </c>
       <c r="C267" s="2"/>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A268" s="2"/>
       <c r="B268" s="2" t="s">
         <v>737</v>
       </c>
       <c r="C268" s="2"/>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A269" s="2"/>
       <c r="B269" s="2" t="s">
         <v>738</v>
       </c>
       <c r="C269" s="2"/>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A270" s="2"/>
       <c r="B270" s="2" t="s">
         <v>739</v>
       </c>
       <c r="C270" s="2"/>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A271" s="2"/>
       <c r="B271" s="2" t="s">
         <v>740</v>
       </c>
       <c r="C271" s="2"/>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A272" s="2" t="s">
         <v>368</v>
       </c>
@@ -6534,49 +6537,49 @@
         <v>79</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A273" s="2"/>
       <c r="B273" s="2" t="s">
         <v>743</v>
       </c>
       <c r="C273" s="2"/>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A274" s="2"/>
       <c r="B274" s="2" t="s">
         <v>744</v>
       </c>
       <c r="C274" s="2"/>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A275" s="2"/>
       <c r="B275" s="2" t="s">
         <v>741</v>
       </c>
       <c r="C275" s="2"/>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A276" s="2"/>
       <c r="B276" s="2" t="s">
         <v>742</v>
       </c>
       <c r="C276" s="2"/>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A277" s="2"/>
       <c r="B277" s="2" t="s">
         <v>745</v>
       </c>
       <c r="C277" s="2"/>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A278" s="2"/>
       <c r="B278" s="2" t="s">
         <v>746</v>
       </c>
       <c r="C278" s="2"/>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A279" s="2" t="s">
         <v>369</v>
       </c>
@@ -6587,49 +6590,49 @@
         <v>81</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A280" s="2"/>
       <c r="B280" s="2" t="s">
         <v>747</v>
       </c>
       <c r="C280" s="2"/>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A281" s="2"/>
       <c r="B281" s="2" t="s">
         <v>748</v>
       </c>
       <c r="C281" s="2"/>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A282" s="2"/>
       <c r="B282" s="2" t="s">
         <v>749</v>
       </c>
       <c r="C282" s="2"/>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A283" s="2"/>
       <c r="B283" s="2" t="s">
         <v>750</v>
       </c>
       <c r="C283" s="2"/>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A284" s="2"/>
       <c r="B284" s="2" t="s">
         <v>751</v>
       </c>
       <c r="C284" s="2"/>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A285" s="2"/>
       <c r="B285" s="2" t="s">
         <v>752</v>
       </c>
       <c r="C285" s="2"/>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A286" s="2" t="s">
         <v>370</v>
       </c>
@@ -6640,63 +6643,63 @@
         <v>83</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A287" s="2"/>
       <c r="B287" s="2" t="s">
         <v>753</v>
       </c>
       <c r="C287" s="2"/>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A288" s="2"/>
       <c r="B288" s="2" t="s">
         <v>754</v>
       </c>
       <c r="C288" s="2"/>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A289" s="2"/>
       <c r="B289" s="2" t="s">
         <v>755</v>
       </c>
       <c r="C289" s="2"/>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A290" s="2"/>
       <c r="B290" s="2" t="s">
         <v>756</v>
       </c>
       <c r="C290" s="2"/>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A291" s="2"/>
       <c r="B291" s="2" t="s">
         <v>757</v>
       </c>
       <c r="C291" s="2"/>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A292" s="2"/>
       <c r="B292" s="2" t="s">
         <v>758</v>
       </c>
       <c r="C292" s="2"/>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A293" s="2"/>
       <c r="B293" s="2" t="s">
         <v>759</v>
       </c>
       <c r="C293" s="2"/>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A294" s="2"/>
       <c r="B294" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C294" s="2"/>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A295" s="2" t="s">
         <v>371</v>
       </c>
@@ -6707,49 +6710,49 @@
         <v>84</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A296" s="2"/>
       <c r="B296" s="2" t="s">
         <v>762</v>
       </c>
       <c r="C296" s="2"/>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A297" s="2"/>
       <c r="B297" s="2" t="s">
         <v>767</v>
       </c>
       <c r="C297" s="2"/>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A298" s="2"/>
       <c r="B298" s="2" t="s">
         <v>763</v>
       </c>
       <c r="C298" s="2"/>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A299" s="2"/>
       <c r="B299" s="2" t="s">
         <v>766</v>
       </c>
       <c r="C299" s="2"/>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A300" s="2"/>
       <c r="B300" s="2" t="s">
         <v>764</v>
       </c>
       <c r="C300" s="2"/>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A301" s="2"/>
       <c r="B301" s="2" t="s">
         <v>765</v>
       </c>
       <c r="C301" s="2"/>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A302" s="2" t="s">
         <v>372</v>
       </c>
@@ -6760,35 +6763,35 @@
         <v>86</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A303" s="2"/>
       <c r="B303" s="2" t="s">
         <v>768</v>
       </c>
       <c r="C303" s="2"/>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A304" s="2"/>
       <c r="B304" s="2" t="s">
         <v>769</v>
       </c>
       <c r="C304" s="2"/>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A305" s="2"/>
       <c r="B305" s="2" t="s">
         <v>770</v>
       </c>
       <c r="C305" s="2"/>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A306" s="2"/>
       <c r="B306" s="2" t="s">
         <v>771</v>
       </c>
       <c r="C306" s="2"/>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A307" s="2" t="s">
         <v>373</v>
       </c>
@@ -6799,35 +6802,35 @@
         <v>88</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A308" s="2"/>
       <c r="B308" s="2" t="s">
         <v>772</v>
       </c>
       <c r="C308" s="2"/>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A309" s="2"/>
       <c r="B309" s="2" t="s">
         <v>773</v>
       </c>
       <c r="C309" s="2"/>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A310" s="2"/>
       <c r="B310" s="2" t="s">
         <v>774</v>
       </c>
       <c r="C310" s="2"/>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A311" s="2"/>
       <c r="B311" s="2" t="s">
         <v>775</v>
       </c>
       <c r="C311" s="2"/>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A312" s="2" t="s">
         <v>374</v>
       </c>
@@ -6838,14 +6841,14 @@
         <v>776</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A313" s="2"/>
       <c r="B313" s="2" t="s">
         <v>777</v>
       </c>
       <c r="C313" s="2"/>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A314" s="2" t="s">
         <v>375</v>
       </c>
@@ -6856,21 +6859,21 @@
         <v>91</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A315" s="2"/>
       <c r="B315" s="2" t="s">
         <v>778</v>
       </c>
       <c r="C315" s="2"/>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A316" s="2"/>
       <c r="B316" s="2" t="s">
         <v>779</v>
       </c>
       <c r="C316" s="2"/>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A317" s="2" t="s">
         <v>376</v>
       </c>
@@ -6881,35 +6884,35 @@
         <v>93</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A318" s="2"/>
       <c r="B318" s="2" t="s">
         <v>780</v>
       </c>
       <c r="C318" s="2"/>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A319" s="2"/>
       <c r="B319" s="2" t="s">
         <v>781</v>
       </c>
       <c r="C319" s="2"/>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A320" s="2"/>
       <c r="B320" s="2" t="s">
         <v>782</v>
       </c>
       <c r="C320" s="2"/>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A321" s="2"/>
       <c r="B321" s="2" t="s">
         <v>783</v>
       </c>
       <c r="C321" s="2"/>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A322" s="2" t="s">
         <v>377</v>
       </c>
@@ -6920,63 +6923,63 @@
         <v>95</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A323" s="2"/>
       <c r="B323" s="2" t="s">
         <v>784</v>
       </c>
       <c r="C323" s="2"/>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A324" s="2"/>
       <c r="B324" s="2" t="s">
         <v>785</v>
       </c>
       <c r="C324" s="2"/>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A325" s="2"/>
       <c r="B325" s="2" t="s">
         <v>786</v>
       </c>
       <c r="C325" s="2"/>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A326" s="2"/>
       <c r="B326" s="2" t="s">
         <v>787</v>
       </c>
       <c r="C326" s="2"/>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A327" s="2"/>
       <c r="B327" s="2" t="s">
         <v>788</v>
       </c>
       <c r="C327" s="2"/>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A328" s="2"/>
       <c r="B328" s="2" t="s">
         <v>789</v>
       </c>
       <c r="C328" s="2"/>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A329" s="2"/>
       <c r="B329" s="2" t="s">
         <v>790</v>
       </c>
       <c r="C329" s="2"/>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A330" s="2"/>
       <c r="B330" s="2" t="s">
         <v>791</v>
       </c>
       <c r="C330" s="2"/>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A331" s="2" t="s">
         <v>378</v>
       </c>
@@ -6987,14 +6990,14 @@
         <v>97</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A332" s="2"/>
       <c r="B332" s="2" t="s">
         <v>798</v>
       </c>
       <c r="C332" s="2"/>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A333" s="2" t="s">
         <v>379</v>
       </c>
@@ -7005,14 +7008,14 @@
         <v>99</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A334" s="2"/>
       <c r="B334" s="2" t="s">
         <v>799</v>
       </c>
       <c r="C334" s="2"/>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A335" s="2" t="s">
         <v>380</v>
       </c>
@@ -7023,14 +7026,14 @@
         <v>101</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A336" s="2"/>
       <c r="B336" s="2" t="s">
         <v>800</v>
       </c>
       <c r="C336" s="2"/>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A337" s="2" t="s">
         <v>381</v>
       </c>
@@ -7041,14 +7044,14 @@
         <v>103</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A338" s="2"/>
       <c r="B338" s="2" t="s">
         <v>801</v>
       </c>
       <c r="C338" s="2"/>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A339" s="2" t="s">
         <v>382</v>
       </c>
@@ -7059,14 +7062,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A340" s="2"/>
       <c r="B340" s="2" t="s">
         <v>802</v>
       </c>
       <c r="C340" s="2"/>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A341" s="2" t="s">
         <v>383</v>
       </c>
@@ -7077,42 +7080,42 @@
         <v>106</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A342" s="2"/>
       <c r="B342" s="2" t="s">
         <v>793</v>
       </c>
       <c r="C342" s="2"/>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A343" s="2"/>
       <c r="B343" s="2" t="s">
         <v>794</v>
       </c>
       <c r="C343" s="2"/>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A344" s="2"/>
       <c r="B344" s="2" t="s">
         <v>795</v>
       </c>
       <c r="C344" s="2"/>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A345" s="2"/>
       <c r="B345" s="2" t="s">
         <v>796</v>
       </c>
       <c r="C345" s="2"/>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A346" s="2"/>
       <c r="B346" s="2" t="s">
         <v>797</v>
       </c>
       <c r="C346" s="2"/>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A347" s="2" t="s">
         <v>386</v>
       </c>
@@ -7123,14 +7126,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A348" s="2"/>
       <c r="B348" s="5" t="s">
         <v>803</v>
       </c>
       <c r="C348" s="2"/>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A349" s="2" t="s">
         <v>387</v>
       </c>
@@ -7141,21 +7144,21 @@
         <v>110</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A350" s="2"/>
       <c r="B350" s="5" t="s">
         <v>805</v>
       </c>
       <c r="C350" s="5"/>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A351" s="2"/>
       <c r="B351" s="5" t="s">
         <v>804</v>
       </c>
       <c r="C351" s="5"/>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A352" s="2" t="s">
         <v>388</v>
       </c>
@@ -7166,42 +7169,42 @@
         <v>112</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A353" s="2"/>
       <c r="B353" s="5" t="s">
         <v>806</v>
       </c>
       <c r="C353" s="5"/>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A354" s="2"/>
       <c r="B354" s="5" t="s">
         <v>807</v>
       </c>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A355" s="2"/>
       <c r="B355" s="5" t="s">
         <v>806</v>
       </c>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A356" s="2"/>
       <c r="B356" s="5" t="s">
         <v>808</v>
       </c>
       <c r="C356" s="5"/>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A357" s="2"/>
       <c r="B357" s="5" t="s">
         <v>809</v>
       </c>
       <c r="C357" s="5"/>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A358" s="2" t="s">
         <v>389</v>
       </c>
@@ -7212,35 +7215,35 @@
         <v>114</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A359" s="2"/>
       <c r="B359" s="5" t="s">
         <v>810</v>
       </c>
       <c r="C359" s="2"/>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A360" s="2"/>
       <c r="B360" s="5" t="s">
         <v>811</v>
       </c>
       <c r="C360" s="2"/>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A361" s="2"/>
       <c r="B361" s="5" t="s">
         <v>812</v>
       </c>
       <c r="C361" s="2"/>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A362" s="2"/>
       <c r="B362" s="5" t="s">
         <v>813</v>
       </c>
       <c r="C362" s="2"/>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A363" s="2" t="s">
         <v>390</v>
       </c>
@@ -7251,35 +7254,35 @@
         <v>116</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A364" s="2"/>
       <c r="B364" s="5" t="s">
         <v>814</v>
       </c>
       <c r="C364" s="2"/>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A365" s="2"/>
       <c r="B365" s="5" t="s">
         <v>815</v>
       </c>
       <c r="C365" s="2"/>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A366" s="2"/>
       <c r="B366" s="5" t="s">
         <v>816</v>
       </c>
       <c r="C366" s="2"/>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A367" s="2"/>
       <c r="B367" s="5" t="s">
         <v>817</v>
       </c>
       <c r="C367" s="2"/>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A368" s="2" t="s">
         <v>391</v>
       </c>
@@ -7290,28 +7293,28 @@
         <v>117</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A369" s="2"/>
       <c r="B369" s="5" t="s">
         <v>819</v>
       </c>
       <c r="C369" s="6"/>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A370" s="2"/>
       <c r="B370" s="5" t="s">
         <v>820</v>
       </c>
       <c r="C370" s="6"/>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A371" s="2"/>
       <c r="B371" s="5" t="s">
         <v>821</v>
       </c>
       <c r="C371" s="6"/>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A372" s="2" t="s">
         <v>392</v>
       </c>
@@ -7322,35 +7325,35 @@
         <v>119</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A373" s="2"/>
       <c r="B373" s="5" t="s">
         <v>822</v>
       </c>
       <c r="C373" s="2"/>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A374" s="2"/>
       <c r="B374" s="5" t="s">
         <v>823</v>
       </c>
       <c r="C374" s="2"/>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A375" s="2"/>
       <c r="B375" s="5" t="s">
         <v>824</v>
       </c>
       <c r="C375" s="2"/>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A376" s="2"/>
       <c r="B376" s="5" t="s">
         <v>825</v>
       </c>
       <c r="C376" s="2"/>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A377" s="2" t="s">
         <v>393</v>
       </c>
@@ -7361,35 +7364,35 @@
         <v>120</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A378" s="2"/>
       <c r="B378" s="5" t="s">
         <v>827</v>
       </c>
       <c r="C378" s="2"/>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A379" s="2"/>
       <c r="B379" s="5" t="s">
         <v>828</v>
       </c>
       <c r="C379" s="2"/>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A380" s="2"/>
       <c r="B380" s="5" t="s">
         <v>829</v>
       </c>
       <c r="C380" s="2"/>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A381" s="2"/>
       <c r="B381" s="5" t="s">
         <v>830</v>
       </c>
       <c r="C381" s="2"/>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A382" s="2" t="s">
         <v>394</v>
       </c>
@@ -7400,189 +7403,189 @@
         <v>121</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A383" s="2"/>
       <c r="B383" s="5" t="s">
         <v>832</v>
       </c>
       <c r="C383" s="2"/>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A384" s="2"/>
       <c r="B384" s="5" t="s">
         <v>833</v>
       </c>
       <c r="C384" s="2"/>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A385" s="2"/>
       <c r="B385" s="5" t="s">
         <v>834</v>
       </c>
       <c r="C385" s="2"/>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A386" s="2"/>
       <c r="B386" s="5" t="s">
         <v>835</v>
       </c>
       <c r="C386" s="2"/>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A387" s="2"/>
       <c r="B387" s="5" t="s">
         <v>836</v>
       </c>
       <c r="C387" s="2"/>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A388" s="2"/>
       <c r="B388" s="5" t="s">
         <v>837</v>
       </c>
       <c r="C388" s="2"/>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A389" s="2"/>
       <c r="B389" s="5" t="s">
         <v>838</v>
       </c>
       <c r="C389" s="2"/>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A390" s="2"/>
       <c r="B390" s="5" t="s">
         <v>839</v>
       </c>
       <c r="C390" s="2"/>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A391" s="2"/>
       <c r="B391" s="5" t="s">
         <v>840</v>
       </c>
       <c r="C391" s="2"/>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A392" s="2"/>
       <c r="B392" s="5" t="s">
         <v>841</v>
       </c>
       <c r="C392" s="2"/>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A393" s="2"/>
       <c r="B393" s="5" t="s">
         <v>842</v>
       </c>
       <c r="C393" s="2"/>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A394" s="2"/>
       <c r="B394" s="5" t="s">
         <v>843</v>
       </c>
       <c r="C394" s="2"/>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A395" s="2"/>
       <c r="B395" s="5" t="s">
         <v>844</v>
       </c>
       <c r="C395" s="2"/>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A396" s="2"/>
       <c r="B396" s="5" t="s">
         <v>845</v>
       </c>
       <c r="C396" s="2"/>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A397" s="2"/>
       <c r="B397" s="5" t="s">
         <v>846</v>
       </c>
       <c r="C397" s="2"/>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A398" s="2"/>
       <c r="B398" s="5" t="s">
         <v>847</v>
       </c>
       <c r="C398" s="2"/>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A399" s="2"/>
       <c r="B399" s="5" t="s">
         <v>848</v>
       </c>
       <c r="C399" s="2"/>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A400" s="2"/>
       <c r="B400" s="5" t="s">
         <v>849</v>
       </c>
       <c r="C400" s="2"/>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A401" s="2"/>
       <c r="B401" s="5" t="s">
         <v>850</v>
       </c>
       <c r="C401" s="2"/>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A402" s="2"/>
       <c r="B402" s="5" t="s">
         <v>851</v>
       </c>
       <c r="C402" s="2"/>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A403" s="2"/>
       <c r="B403" s="5" t="s">
         <v>852</v>
       </c>
       <c r="C403" s="2"/>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A404" s="2"/>
       <c r="B404" s="5" t="s">
         <v>853</v>
       </c>
       <c r="C404" s="2"/>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A405" s="2"/>
       <c r="B405" s="5" t="s">
         <v>854</v>
       </c>
       <c r="C405" s="2"/>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A406" s="2"/>
       <c r="B406" s="5" t="s">
         <v>855</v>
       </c>
       <c r="C406" s="2"/>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A407" s="2"/>
       <c r="B407" s="5" t="s">
         <v>856</v>
       </c>
       <c r="C407" s="2"/>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A408" s="2"/>
       <c r="B408" s="5" t="s">
         <v>857</v>
       </c>
       <c r="C408" s="2"/>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A409" s="2" t="s">
         <v>395</v>
       </c>
@@ -7593,28 +7596,28 @@
         <v>122</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A410" s="2"/>
       <c r="B410" s="5" t="s">
         <v>859</v>
       </c>
       <c r="C410" s="2"/>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A411" s="2"/>
       <c r="B411" s="5" t="s">
         <v>860</v>
       </c>
       <c r="C411" s="2"/>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A412" s="2"/>
       <c r="B412" s="5" t="s">
         <v>861</v>
       </c>
       <c r="C412" s="2"/>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A413" s="2" t="s">
         <v>396</v>
       </c>
@@ -7625,49 +7628,49 @@
         <v>865</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A414" s="2"/>
       <c r="B414" s="3" t="s">
         <v>862</v>
       </c>
       <c r="C414" s="2"/>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A415" s="2"/>
       <c r="B415" s="3" t="s">
         <v>863</v>
       </c>
       <c r="C415" s="2"/>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A416" s="2"/>
       <c r="B416" s="3" t="s">
         <v>864</v>
       </c>
       <c r="C416" s="2"/>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A417" s="2"/>
       <c r="B417" s="3" t="s">
         <v>866</v>
       </c>
       <c r="C417" s="2"/>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A418" s="2"/>
       <c r="B418" s="3" t="s">
         <v>867</v>
       </c>
       <c r="C418" s="2"/>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A419" s="2"/>
       <c r="B419" s="3" t="s">
         <v>868</v>
       </c>
       <c r="C419" s="2"/>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A420" s="2" t="s">
         <v>397</v>
       </c>
@@ -7678,21 +7681,21 @@
         <v>125</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A421" s="2"/>
       <c r="B421" s="3" t="s">
         <v>869</v>
       </c>
       <c r="C421" s="2"/>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A422" s="2"/>
       <c r="B422" s="3" t="s">
         <v>870</v>
       </c>
       <c r="C422" s="2"/>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A423" s="2" t="s">
         <v>398</v>
       </c>
@@ -7703,21 +7706,21 @@
         <v>126</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A424" s="2"/>
       <c r="B424" s="3" t="s">
         <v>872</v>
       </c>
       <c r="C424" s="2"/>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A425" s="2"/>
       <c r="B425" s="3" t="s">
         <v>873</v>
       </c>
       <c r="C425" s="2"/>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A426" s="2" t="s">
         <v>399</v>
       </c>
@@ -7728,7 +7731,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A427" s="2" t="s">
         <v>400</v>
       </c>
@@ -7739,14 +7742,14 @@
         <v>129</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A428" s="2"/>
       <c r="B428" s="5" t="s">
         <v>874</v>
       </c>
       <c r="C428" s="2"/>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A429" s="2" t="s">
         <v>401</v>
       </c>
@@ -7757,14 +7760,14 @@
         <v>132</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A430" s="2"/>
       <c r="B430" s="5" t="s">
         <v>875</v>
       </c>
       <c r="C430" s="2"/>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A431" s="2" t="s">
         <v>402</v>
       </c>
@@ -7775,21 +7778,21 @@
         <v>134</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A432" s="2"/>
       <c r="B432" s="5" t="s">
         <v>876</v>
       </c>
       <c r="C432" s="2"/>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A433" s="2"/>
       <c r="B433" s="5" t="s">
         <v>877</v>
       </c>
       <c r="C433" s="2"/>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A434" s="2" t="s">
         <v>403</v>
       </c>
@@ -7800,35 +7803,35 @@
         <v>135</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A435" s="2"/>
       <c r="B435" s="5" t="s">
         <v>878</v>
       </c>
       <c r="C435" s="2"/>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A436" s="2"/>
       <c r="B436" s="5" t="s">
         <v>879</v>
       </c>
       <c r="C436" s="2"/>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A437" s="2"/>
       <c r="B437" s="5" t="s">
         <v>880</v>
       </c>
       <c r="C437" s="2"/>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A438" s="2"/>
       <c r="B438" s="5" t="s">
         <v>881</v>
       </c>
       <c r="C438" s="2"/>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A439" s="2" t="s">
         <v>404</v>
       </c>
@@ -7839,21 +7842,21 @@
         <v>136</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A440" s="2"/>
       <c r="B440" s="5" t="s">
         <v>883</v>
       </c>
       <c r="C440" s="2"/>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A441" s="2"/>
       <c r="B441" s="5" t="s">
         <v>882</v>
       </c>
       <c r="C441" s="2"/>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A442" s="2" t="s">
         <v>405</v>
       </c>
@@ -7864,35 +7867,35 @@
         <v>885</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A443" s="2"/>
       <c r="B443" s="5" t="s">
         <v>884</v>
       </c>
       <c r="C443" s="2"/>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A444" s="2"/>
       <c r="B444" s="5" t="s">
         <v>886</v>
       </c>
       <c r="C444" s="2"/>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A445" s="2"/>
       <c r="B445" s="5" t="s">
         <v>887</v>
       </c>
       <c r="C445" s="2"/>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A446" s="2"/>
       <c r="B446" s="5" t="s">
         <v>888</v>
       </c>
       <c r="C446" s="2"/>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A447" s="2" t="s">
         <v>406</v>
       </c>
@@ -7903,42 +7906,42 @@
         <v>139</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A448" s="2"/>
       <c r="B448" s="5" t="s">
         <v>889</v>
       </c>
       <c r="C448" s="2"/>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A449" s="2"/>
       <c r="B449" s="5" t="s">
         <v>890</v>
       </c>
       <c r="C449" s="2"/>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A450" s="2"/>
       <c r="B450" s="5" t="s">
         <v>891</v>
       </c>
       <c r="C450" s="2"/>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A451" s="2"/>
       <c r="B451" s="5" t="s">
         <v>892</v>
       </c>
       <c r="C451" s="2"/>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A452" s="2"/>
       <c r="B452" s="5" t="s">
         <v>893</v>
       </c>
       <c r="C452" s="2"/>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A453" s="2" t="s">
         <v>407</v>
       </c>
@@ -7949,28 +7952,28 @@
         <v>141</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A454" s="2"/>
       <c r="B454" s="5" t="s">
         <v>894</v>
       </c>
       <c r="C454" s="2"/>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A455" s="2"/>
       <c r="B455" s="5" t="s">
         <v>895</v>
       </c>
       <c r="C455" s="2"/>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A456" s="2"/>
       <c r="B456" s="5" t="s">
         <v>896</v>
       </c>
       <c r="C456" s="2"/>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A457" s="2" t="s">
         <v>408</v>
       </c>
@@ -7981,21 +7984,21 @@
         <v>144</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A458" s="2"/>
       <c r="B458" s="5" t="s">
         <v>897</v>
       </c>
       <c r="C458" s="7"/>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A459" s="2"/>
       <c r="B459" s="5" t="s">
         <v>898</v>
       </c>
       <c r="C459" s="7"/>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A460" s="2" t="s">
         <v>409</v>
       </c>
@@ -8006,28 +8009,28 @@
         <v>147</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A461" s="2"/>
       <c r="B461" s="5" t="s">
         <v>899</v>
       </c>
       <c r="C461" s="2"/>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A462" s="2"/>
       <c r="B462" s="5" t="s">
         <v>900</v>
       </c>
       <c r="C462" s="2"/>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A463" s="2"/>
       <c r="B463" s="5" t="s">
         <v>901</v>
       </c>
       <c r="C463" s="2"/>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A464" s="2" t="s">
         <v>410</v>
       </c>
@@ -8038,35 +8041,35 @@
         <v>150</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A465" s="2"/>
       <c r="B465" s="5" t="s">
         <v>902</v>
       </c>
       <c r="C465" s="7"/>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A466" s="2"/>
       <c r="B466" s="5" t="s">
         <v>906</v>
       </c>
       <c r="C466" s="7"/>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A467" s="2"/>
       <c r="B467" s="5" t="s">
         <v>903</v>
       </c>
       <c r="C467" s="7"/>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A468" s="2"/>
       <c r="B468" s="5" t="s">
         <v>904</v>
       </c>
       <c r="C468" s="7"/>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A469" s="2" t="s">
         <v>411</v>
       </c>
@@ -8077,21 +8080,21 @@
         <v>151</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A470" s="2"/>
       <c r="B470" s="5" t="s">
         <v>905</v>
       </c>
       <c r="C470" s="8"/>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A471" s="2"/>
       <c r="B471" s="5" t="s">
         <v>907</v>
       </c>
       <c r="C471" s="8"/>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A472" s="2" t="s">
         <v>412</v>
       </c>
@@ -8102,21 +8105,21 @@
         <v>195</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A473" s="2"/>
       <c r="B473" s="5" t="s">
         <v>908</v>
       </c>
       <c r="C473" s="5"/>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A474" s="2"/>
       <c r="B474" s="5" t="s">
         <v>910</v>
       </c>
       <c r="C474" s="5"/>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A475" s="2" t="s">
         <v>413</v>
       </c>
@@ -8127,42 +8130,42 @@
         <v>197</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A476" s="2"/>
       <c r="B476" s="5" t="s">
         <v>911</v>
       </c>
       <c r="C476" s="2"/>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A477" s="2"/>
       <c r="B477" s="5" t="s">
         <v>912</v>
       </c>
       <c r="C477" s="2"/>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A478" s="2"/>
       <c r="B478" s="5" t="s">
         <v>913</v>
       </c>
       <c r="C478" s="2"/>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A479" s="2"/>
       <c r="B479" s="5" t="s">
         <v>914</v>
       </c>
       <c r="C479" s="2"/>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A480" s="2"/>
       <c r="B480" s="5" t="s">
         <v>915</v>
       </c>
       <c r="C480" s="2"/>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A481" s="2" t="s">
         <v>414</v>
       </c>
@@ -8173,28 +8176,28 @@
         <v>199</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A482" s="2"/>
       <c r="B482" s="5" t="s">
         <v>916</v>
       </c>
       <c r="C482" s="2"/>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A483" s="2"/>
       <c r="B483" s="5" t="s">
         <v>917</v>
       </c>
       <c r="C483" s="2"/>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A484" s="2"/>
       <c r="B484" s="5" t="s">
         <v>918</v>
       </c>
       <c r="C484" s="2"/>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A485" s="2" t="s">
         <v>415</v>
       </c>
@@ -8205,28 +8208,28 @@
         <v>201</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A486" s="2"/>
       <c r="B486" s="5" t="s">
         <v>919</v>
       </c>
       <c r="C486" s="2"/>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A487" s="2"/>
       <c r="B487" s="5" t="s">
         <v>920</v>
       </c>
       <c r="C487" s="2"/>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A488" s="2"/>
       <c r="B488" s="5" t="s">
         <v>921</v>
       </c>
       <c r="C488" s="2"/>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A489" s="2" t="s">
         <v>416</v>
       </c>
@@ -8237,28 +8240,28 @@
         <v>203</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A490" s="2"/>
       <c r="B490" s="5" t="s">
         <v>922</v>
       </c>
       <c r="C490" s="2"/>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A491" s="2"/>
       <c r="B491" s="5" t="s">
         <v>923</v>
       </c>
       <c r="C491" s="2"/>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A492" s="2"/>
       <c r="B492" s="5" t="s">
         <v>924</v>
       </c>
       <c r="C492" s="2"/>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A493" s="2" t="s">
         <v>417</v>
       </c>
@@ -8269,35 +8272,35 @@
         <v>205</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A494" s="2"/>
       <c r="B494" s="5" t="s">
         <v>925</v>
       </c>
       <c r="C494" s="2"/>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A495" s="2"/>
       <c r="B495" s="5" t="s">
         <v>926</v>
       </c>
       <c r="C495" s="2"/>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A496" s="2"/>
       <c r="B496" s="5" t="s">
         <v>927</v>
       </c>
       <c r="C496" s="2"/>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A497" s="2"/>
       <c r="B497" s="5" t="s">
         <v>928</v>
       </c>
       <c r="C497" s="2"/>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A498" s="2" t="s">
         <v>418</v>
       </c>
@@ -8308,35 +8311,35 @@
         <v>207</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A499" s="2"/>
       <c r="B499" s="5" t="s">
         <v>929</v>
       </c>
       <c r="C499" s="2"/>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A500" s="2"/>
       <c r="B500" s="5" t="s">
         <v>930</v>
       </c>
       <c r="C500" s="2"/>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A501" s="2"/>
       <c r="B501" s="5" t="s">
         <v>931</v>
       </c>
       <c r="C501" s="2"/>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A502" s="2"/>
       <c r="B502" s="5" t="s">
         <v>932</v>
       </c>
       <c r="C502" s="2"/>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A503" s="2" t="s">
         <v>419</v>
       </c>
@@ -8347,35 +8350,35 @@
         <v>209</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A504" s="2"/>
       <c r="B504" s="5" t="s">
         <v>933</v>
       </c>
       <c r="C504" s="2"/>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A505" s="2"/>
       <c r="B505" s="5" t="s">
         <v>934</v>
       </c>
       <c r="C505" s="2"/>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A506" s="2"/>
       <c r="B506" s="5" t="s">
         <v>935</v>
       </c>
       <c r="C506" s="2"/>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A507" s="2"/>
       <c r="B507" s="5" t="s">
         <v>936</v>
       </c>
       <c r="C507" s="2"/>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A508" s="2" t="s">
         <v>420</v>
       </c>
@@ -8386,21 +8389,21 @@
         <v>211</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A509" s="2"/>
       <c r="B509" s="5" t="s">
         <v>937</v>
       </c>
       <c r="C509" s="2"/>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A510" s="2"/>
       <c r="B510" s="5" t="s">
         <v>938</v>
       </c>
       <c r="C510" s="2"/>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A511" s="2" t="s">
         <v>421</v>
       </c>
@@ -8411,28 +8414,28 @@
         <v>213</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A512" s="2"/>
       <c r="B512" s="5" t="s">
         <v>939</v>
       </c>
       <c r="C512" s="2"/>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A513" s="2"/>
       <c r="B513" s="5" t="s">
         <v>940</v>
       </c>
       <c r="C513" s="2"/>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A514" s="2"/>
       <c r="B514" s="5" t="s">
         <v>941</v>
       </c>
       <c r="C514" s="2"/>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A515" s="2" t="s">
         <v>422</v>
       </c>
@@ -8443,35 +8446,35 @@
         <v>215</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A516" s="2"/>
       <c r="B516" s="5" t="s">
         <v>942</v>
       </c>
       <c r="C516" s="2"/>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A517" s="2"/>
       <c r="B517" s="5" t="s">
         <v>943</v>
       </c>
       <c r="C517" s="2"/>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A518" s="2"/>
       <c r="B518" s="5" t="s">
         <v>944</v>
       </c>
       <c r="C518" s="2"/>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A519" s="2"/>
       <c r="B519" s="5" t="s">
         <v>945</v>
       </c>
       <c r="C519" s="2"/>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A520" s="2" t="s">
         <v>423</v>
       </c>
@@ -8482,35 +8485,35 @@
         <v>217</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A521" s="2"/>
       <c r="B521" s="5" t="s">
         <v>946</v>
       </c>
       <c r="C521" s="2"/>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A522" s="2"/>
       <c r="B522" s="5" t="s">
         <v>947</v>
       </c>
       <c r="C522" s="2"/>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A523" s="2"/>
       <c r="B523" s="5" t="s">
         <v>948</v>
       </c>
       <c r="C523" s="2"/>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A524" s="2"/>
       <c r="B524" s="5" t="s">
         <v>949</v>
       </c>
       <c r="C524" s="2"/>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A525" s="2" t="s">
         <v>424</v>
       </c>
@@ -8521,42 +8524,42 @@
         <v>219</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A526" s="2"/>
       <c r="B526" s="5" t="s">
         <v>950</v>
       </c>
       <c r="C526" s="2"/>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A527" s="2"/>
       <c r="B527" s="5" t="s">
         <v>951</v>
       </c>
       <c r="C527" s="2"/>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A528" s="2"/>
       <c r="B528" s="5" t="s">
         <v>952</v>
       </c>
       <c r="C528" s="2"/>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A529" s="2"/>
       <c r="B529" s="5" t="s">
         <v>953</v>
       </c>
       <c r="C529" s="2"/>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A530" s="2"/>
       <c r="B530" s="5" t="s">
         <v>954</v>
       </c>
       <c r="C530" s="2"/>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A531" s="2" t="s">
         <v>425</v>
       </c>
@@ -8567,35 +8570,35 @@
         <v>221</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A532" s="2"/>
       <c r="B532" s="5" t="s">
         <v>955</v>
       </c>
       <c r="C532" s="2"/>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A533" s="2"/>
       <c r="B533" s="5" t="s">
         <v>956</v>
       </c>
       <c r="C533" s="2"/>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A534" s="2"/>
       <c r="B534" s="5" t="s">
         <v>957</v>
       </c>
       <c r="C534" s="2"/>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A535" s="2"/>
       <c r="B535" s="5" t="s">
         <v>958</v>
       </c>
       <c r="C535" s="2"/>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A536" s="2" t="s">
         <v>426</v>
       </c>
@@ -8606,35 +8609,35 @@
         <v>223</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A537" s="2"/>
       <c r="B537" s="5" t="s">
         <v>959</v>
       </c>
       <c r="C537" s="3"/>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A538" s="2"/>
       <c r="B538" s="5" t="s">
         <v>960</v>
       </c>
       <c r="C538" s="3"/>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A539" s="2"/>
       <c r="B539" s="5" t="s">
         <v>961</v>
       </c>
       <c r="C539" s="3"/>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A540" s="2"/>
       <c r="B540" s="5" t="s">
         <v>962</v>
       </c>
       <c r="C540" s="2"/>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A541" s="2" t="s">
         <v>427</v>
       </c>
@@ -8645,21 +8648,21 @@
         <v>225</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A542" s="2"/>
       <c r="B542" s="5" t="s">
         <v>963</v>
       </c>
       <c r="C542" s="2"/>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A543" s="2"/>
       <c r="B543" s="5" t="s">
         <v>964</v>
       </c>
       <c r="C543" s="2"/>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A544" s="2" t="s">
         <v>428</v>
       </c>
@@ -8670,21 +8673,21 @@
         <v>227</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A545" s="2"/>
       <c r="B545" s="5" t="s">
         <v>966</v>
       </c>
       <c r="C545" s="2"/>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A546" s="2"/>
       <c r="B546" s="5" t="s">
         <v>965</v>
       </c>
       <c r="C546" s="2"/>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A547" s="2" t="s">
         <v>429</v>
       </c>
@@ -8695,21 +8698,21 @@
         <v>229</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A548" s="2"/>
       <c r="B548" s="5" t="s">
         <v>967</v>
       </c>
       <c r="C548" s="2"/>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A549" s="2"/>
       <c r="B549" s="5" t="s">
         <v>968</v>
       </c>
       <c r="C549" s="2"/>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A550" s="2" t="s">
         <v>430</v>
       </c>
@@ -8720,28 +8723,28 @@
         <v>231</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A551" s="2"/>
       <c r="B551" s="5" t="s">
         <v>969</v>
       </c>
       <c r="C551" s="2"/>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A552" s="2"/>
       <c r="B552" s="5" t="s">
         <v>970</v>
       </c>
       <c r="C552" s="2"/>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A553" s="2"/>
       <c r="B553" s="5" t="s">
         <v>971</v>
       </c>
       <c r="C553" s="2"/>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A554" s="2" t="s">
         <v>431</v>
       </c>
@@ -8752,28 +8755,28 @@
         <v>233</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A555" s="2"/>
       <c r="B555" s="5" t="s">
         <v>972</v>
       </c>
       <c r="C555" s="2"/>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A556" s="2"/>
       <c r="B556" s="5" t="s">
         <v>973</v>
       </c>
       <c r="C556" s="2"/>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A557" s="2"/>
       <c r="B557" s="5" t="s">
         <v>974</v>
       </c>
       <c r="C557" s="2"/>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A558" s="2" t="s">
         <v>432</v>
       </c>
@@ -8784,28 +8787,28 @@
         <v>235</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A559" s="2"/>
       <c r="B559" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C559" s="2"/>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A560" s="2"/>
       <c r="B560" s="5" t="s">
         <v>978</v>
       </c>
       <c r="C560" s="2"/>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A561" s="2"/>
       <c r="B561" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C561" s="2"/>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A562" s="2" t="s">
         <v>433</v>
       </c>
@@ -8816,28 +8819,28 @@
         <v>237</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A563" s="2"/>
       <c r="B563" s="5" t="s">
         <v>975</v>
       </c>
       <c r="C563" s="2"/>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A564" s="2"/>
       <c r="B564" s="5" t="s">
         <v>976</v>
       </c>
       <c r="C564" s="2"/>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A565" s="2"/>
       <c r="B565" s="5" t="s">
         <v>980</v>
       </c>
       <c r="C565" s="2"/>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A566" s="2" t="s">
         <v>434</v>
       </c>
@@ -8848,28 +8851,28 @@
         <v>239</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A567" s="2"/>
       <c r="B567" s="5" t="s">
         <v>981</v>
       </c>
       <c r="C567" s="2"/>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A568" s="2"/>
       <c r="B568" s="5" t="s">
         <v>982</v>
       </c>
       <c r="C568" s="2"/>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A569" s="2"/>
       <c r="B569" s="5" t="s">
         <v>983</v>
       </c>
       <c r="C569" s="2"/>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A570" s="2" t="s">
         <v>435</v>
       </c>
@@ -8880,28 +8883,28 @@
         <v>241</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A571" s="2"/>
       <c r="B571" s="5" t="s">
         <v>984</v>
       </c>
       <c r="C571" s="2"/>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A572" s="2"/>
       <c r="B572" s="5" t="s">
         <v>985</v>
       </c>
       <c r="C572" s="2"/>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A573" s="2"/>
       <c r="B573" s="5" t="s">
         <v>986</v>
       </c>
       <c r="C573" s="2"/>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A574" s="2" t="s">
         <v>436</v>
       </c>
@@ -8912,49 +8915,49 @@
         <v>242</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A575" s="2"/>
       <c r="B575" s="5" t="s">
         <v>987</v>
       </c>
       <c r="C575" s="2"/>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A576" s="2"/>
       <c r="B576" s="5" t="s">
         <v>988</v>
       </c>
       <c r="C576" s="2"/>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A577" s="2"/>
       <c r="B577" s="5" t="s">
         <v>989</v>
       </c>
       <c r="C577" s="2"/>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A578" s="2"/>
       <c r="B578" s="5" t="s">
         <v>990</v>
       </c>
       <c r="C578" s="2"/>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A579" s="2"/>
       <c r="B579" s="5" t="s">
         <v>992</v>
       </c>
       <c r="C579" s="2"/>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A580" s="2"/>
       <c r="B580" s="5" t="s">
         <v>991</v>
       </c>
       <c r="C580" s="2"/>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A581" s="2" t="s">
         <v>437</v>
       </c>
@@ -8965,28 +8968,28 @@
         <v>243</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A582" s="2"/>
       <c r="B582" s="5" t="s">
         <v>993</v>
       </c>
       <c r="C582" s="2"/>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A583" s="2"/>
       <c r="B583" s="5" t="s">
         <v>994</v>
       </c>
       <c r="C583" s="2"/>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A584" s="2"/>
       <c r="B584" s="5" t="s">
         <v>995</v>
       </c>
       <c r="C584" s="2"/>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A585" s="2" t="s">
         <v>438</v>
       </c>
@@ -8997,35 +9000,35 @@
         <v>244</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A586" s="2"/>
       <c r="B586" s="5" t="s">
         <v>996</v>
       </c>
       <c r="C586" s="2"/>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A587" s="2"/>
       <c r="B587" s="5" t="s">
         <v>997</v>
       </c>
       <c r="C587" s="2"/>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A588" s="2"/>
       <c r="B588" s="5" t="s">
         <v>998</v>
       </c>
       <c r="C588" s="2"/>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A589" s="2"/>
       <c r="B589" s="5" t="s">
         <v>999</v>
       </c>
       <c r="C589" s="2"/>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A590" s="2" t="s">
         <v>439</v>
       </c>
@@ -9036,35 +9039,35 @@
         <v>249</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A591" s="2"/>
       <c r="B591" s="5" t="s">
         <v>1000</v>
       </c>
       <c r="C591" s="2"/>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A592" s="2"/>
       <c r="B592" s="5" t="s">
         <v>1001</v>
       </c>
       <c r="C592" s="2"/>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A593" s="2"/>
       <c r="B593" s="5" t="s">
         <v>1002</v>
       </c>
       <c r="C593" s="2"/>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A594" s="2"/>
       <c r="B594" s="5" t="s">
         <v>1003</v>
       </c>
       <c r="C594" s="2"/>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A595" s="2" t="s">
         <v>440</v>
       </c>
@@ -9075,28 +9078,28 @@
         <v>251</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A596" s="2"/>
       <c r="B596" s="5" t="s">
         <v>1004</v>
       </c>
       <c r="C596" s="2"/>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A597" s="2"/>
       <c r="B597" s="5" t="s">
         <v>1005</v>
       </c>
       <c r="C597" s="2"/>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A598" s="2"/>
       <c r="B598" s="5" t="s">
         <v>1006</v>
       </c>
       <c r="C598" s="2"/>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A599" s="2" t="s">
         <v>441</v>
       </c>
@@ -9107,35 +9110,35 @@
         <v>253</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A600" s="2"/>
       <c r="B600" s="5" t="s">
         <v>1007</v>
       </c>
       <c r="C600" s="2"/>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A601" s="2"/>
       <c r="B601" s="5" t="s">
         <v>1008</v>
       </c>
       <c r="C601" s="2"/>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A602" s="2"/>
       <c r="B602" s="5" t="s">
         <v>1009</v>
       </c>
       <c r="C602" s="2"/>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A603" s="2"/>
       <c r="B603" s="5" t="s">
         <v>1010</v>
       </c>
       <c r="C603" s="2"/>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A604" s="2" t="s">
         <v>442</v>
       </c>
@@ -9146,35 +9149,35 @@
         <v>255</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A605" s="2"/>
       <c r="B605" s="5" t="s">
         <v>1011</v>
       </c>
       <c r="C605" s="2"/>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A606" s="2"/>
       <c r="B606" s="5" t="s">
         <v>1012</v>
       </c>
       <c r="C606" s="2"/>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A607" s="2"/>
       <c r="B607" s="5" t="s">
         <v>1013</v>
       </c>
       <c r="C607" s="2"/>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A608" s="2"/>
       <c r="B608" s="5" t="s">
         <v>1014</v>
       </c>
       <c r="C608" s="2"/>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A609" s="2" t="s">
         <v>443</v>
       </c>
@@ -9185,28 +9188,28 @@
         <v>257</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A610" s="2"/>
       <c r="B610" s="5" t="s">
         <v>1015</v>
       </c>
       <c r="C610" s="2"/>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A611" s="2"/>
       <c r="B611" s="5" t="s">
         <v>1016</v>
       </c>
       <c r="C611" s="2"/>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A612" s="2"/>
       <c r="B612" s="5" t="s">
         <v>1017</v>
       </c>
       <c r="C612" s="2"/>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A613" s="2" t="s">
         <v>444</v>
       </c>
@@ -9217,28 +9220,28 @@
         <v>259</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A614" s="2"/>
       <c r="B614" s="5" t="s">
         <v>1018</v>
       </c>
       <c r="C614" s="2"/>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A615" s="2"/>
       <c r="B615" s="5" t="s">
         <v>1019</v>
       </c>
       <c r="C615" s="2"/>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A616" s="2"/>
       <c r="B616" s="5" t="s">
         <v>1020</v>
       </c>
       <c r="C616" s="2"/>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A617" s="2" t="s">
         <v>445</v>
       </c>
@@ -9249,56 +9252,56 @@
         <v>261</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A618" s="2"/>
       <c r="B618" s="5" t="s">
         <v>1021</v>
       </c>
       <c r="C618" s="2"/>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A619" s="2"/>
       <c r="B619" s="5" t="s">
         <v>1026</v>
       </c>
       <c r="C619" s="2"/>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A620" s="2"/>
       <c r="B620" s="5" t="s">
         <v>1022</v>
       </c>
       <c r="C620" s="2"/>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A621" s="2"/>
       <c r="B621" s="5" t="s">
         <v>1023</v>
       </c>
       <c r="C621" s="2"/>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A622" s="2"/>
       <c r="B622" s="5" t="s">
         <v>1024</v>
       </c>
       <c r="C622" s="2"/>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A623" s="2"/>
       <c r="B623" s="5" t="s">
         <v>1025</v>
       </c>
       <c r="C623" s="2"/>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A624" s="2"/>
       <c r="B624" s="5" t="s">
         <v>1027</v>
       </c>
       <c r="C624" s="2"/>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A625" s="2" t="s">
         <v>446</v>
       </c>
@@ -9309,35 +9312,35 @@
         <v>263</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A626" s="2"/>
       <c r="B626" s="5" t="s">
         <v>1028</v>
       </c>
       <c r="C626" s="2"/>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A627" s="2"/>
       <c r="B627" s="5" t="s">
         <v>1029</v>
       </c>
       <c r="C627" s="2"/>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A628" s="2"/>
       <c r="B628" s="5" t="s">
         <v>1030</v>
       </c>
       <c r="C628" s="2"/>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A629" s="2"/>
       <c r="B629" s="5" t="s">
         <v>1031</v>
       </c>
       <c r="C629" s="2"/>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A630" s="2" t="s">
         <v>447</v>
       </c>
@@ -9348,42 +9351,42 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A631" s="2"/>
       <c r="B631" s="5" t="s">
         <v>1032</v>
       </c>
       <c r="C631" s="2"/>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A632" s="2"/>
       <c r="B632" s="5" t="s">
         <v>1033</v>
       </c>
       <c r="C632" s="2"/>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A633" s="2"/>
       <c r="B633" s="5" t="s">
         <v>1034</v>
       </c>
       <c r="C633" s="2"/>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A634" s="2"/>
       <c r="B634" s="5" t="s">
         <v>1035</v>
       </c>
       <c r="C634" s="2"/>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A635" s="2"/>
       <c r="B635" s="5" t="s">
         <v>1036</v>
       </c>
       <c r="C635" s="2"/>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A636" s="2" t="s">
         <v>448</v>
       </c>
@@ -9394,21 +9397,21 @@
         <v>266</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A637" s="2"/>
       <c r="B637" s="5" t="s">
         <v>1038</v>
       </c>
       <c r="C637" s="2"/>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A638" s="2"/>
       <c r="B638" s="5" t="s">
         <v>1039</v>
       </c>
       <c r="C638" s="2"/>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A639" s="2" t="s">
         <v>449</v>
       </c>
@@ -9419,28 +9422,28 @@
         <v>268</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A640" s="2"/>
       <c r="B640" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="C640" s="2"/>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A641" s="2"/>
       <c r="B641" s="5" t="s">
         <v>1041</v>
       </c>
       <c r="C641" s="2"/>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A642" s="2"/>
       <c r="B642" s="5" t="s">
         <v>1042</v>
       </c>
       <c r="C642" s="2"/>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A643" s="2" t="s">
         <v>450</v>
       </c>
@@ -9451,21 +9454,21 @@
         <v>270</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A644" s="2"/>
       <c r="B644" s="5" t="s">
         <v>1043</v>
       </c>
       <c r="C644" s="2"/>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A645" s="2"/>
       <c r="B645" s="5" t="s">
         <v>1044</v>
       </c>
       <c r="C645" s="2"/>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A646" s="2" t="s">
         <v>451</v>
       </c>
@@ -9476,21 +9479,21 @@
         <v>272</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A647" s="2"/>
       <c r="B647" s="5" t="s">
         <v>1045</v>
       </c>
       <c r="C647" s="2"/>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A648" s="2"/>
       <c r="B648" s="5" t="s">
         <v>1046</v>
       </c>
       <c r="C648" s="2"/>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A649" s="2" t="s">
         <v>452</v>
       </c>
@@ -9501,28 +9504,28 @@
         <v>274</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A650" s="2"/>
       <c r="B650" s="5" t="s">
         <v>1047</v>
       </c>
       <c r="C650" s="2"/>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A651" s="2"/>
       <c r="B651" s="5" t="s">
         <v>1048</v>
       </c>
       <c r="C651" s="2"/>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A652" s="2"/>
       <c r="B652" s="5" t="s">
         <v>1049</v>
       </c>
       <c r="C652" s="2"/>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A653" s="2" t="s">
         <v>453</v>
       </c>
@@ -9533,35 +9536,35 @@
         <v>276</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A654" s="2"/>
       <c r="B654" s="5" t="s">
         <v>1050</v>
       </c>
       <c r="C654" s="2"/>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A655" s="2"/>
       <c r="B655" s="5" t="s">
         <v>1051</v>
       </c>
       <c r="C655" s="2"/>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A656" s="2"/>
       <c r="B656" s="5" t="s">
         <v>1052</v>
       </c>
       <c r="C656" s="2"/>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A657" s="2"/>
       <c r="B657" s="5" t="s">
         <v>1053</v>
       </c>
       <c r="C657" s="2"/>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A658" s="2" t="s">
         <v>454</v>
       </c>
@@ -9572,28 +9575,28 @@
         <v>278</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A659" s="2"/>
       <c r="B659" s="5" t="s">
         <v>1054</v>
       </c>
       <c r="C659" s="2"/>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A660" s="2"/>
       <c r="B660" s="5" t="s">
         <v>1055</v>
       </c>
       <c r="C660" s="2"/>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A661" s="2"/>
       <c r="B661" s="5" t="s">
         <v>1056</v>
       </c>
       <c r="C661" s="2"/>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A662" s="2" t="s">
         <v>455</v>
       </c>
@@ -9604,28 +9607,28 @@
         <v>280</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A663" s="2"/>
       <c r="B663" s="5" t="s">
         <v>1057</v>
       </c>
       <c r="C663" s="2"/>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A664" s="2"/>
       <c r="B664" s="5" t="s">
         <v>1058</v>
       </c>
       <c r="C664" s="2"/>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A665" s="2"/>
       <c r="B665" s="5" t="s">
         <v>1059</v>
       </c>
       <c r="C665" s="2"/>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A666" s="2" t="s">
         <v>456</v>
       </c>
@@ -9636,21 +9639,21 @@
         <v>282</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A667" s="2"/>
       <c r="B667" s="5" t="s">
         <v>1060</v>
       </c>
       <c r="C667" s="2"/>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A668" s="2"/>
       <c r="B668" s="5" t="s">
         <v>1061</v>
       </c>
       <c r="C668" s="2"/>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A669" s="2" t="s">
         <v>457</v>
       </c>
@@ -9661,35 +9664,35 @@
         <v>284</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A670" s="2"/>
       <c r="B670" s="5" t="s">
         <v>1062</v>
       </c>
       <c r="C670" s="2"/>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A671" s="2"/>
       <c r="B671" s="5" t="s">
         <v>1063</v>
       </c>
       <c r="C671" s="2"/>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A672" s="2"/>
       <c r="B672" s="5" t="s">
         <v>1064</v>
       </c>
       <c r="C672" s="2"/>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A673" s="2"/>
       <c r="B673" s="5" t="s">
         <v>1065</v>
       </c>
       <c r="C673" s="2"/>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A674" s="2" t="s">
         <v>458</v>
       </c>
@@ -9700,14 +9703,14 @@
         <v>307</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A675" s="2"/>
       <c r="B675" s="5" t="s">
         <v>1066</v>
       </c>
       <c r="C675" s="2"/>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A676" s="2" t="s">
         <v>459</v>
       </c>
@@ -9718,14 +9721,14 @@
         <v>308</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A677" s="2"/>
       <c r="B677" s="5" t="s">
         <v>1067</v>
       </c>
       <c r="C677" s="2"/>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A678" s="2" t="s">
         <v>460</v>
       </c>
@@ -9736,42 +9739,42 @@
         <v>289</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A679" s="2"/>
       <c r="B679" s="5" t="s">
         <v>1068</v>
       </c>
       <c r="C679" s="2"/>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A680" s="2"/>
       <c r="B680" s="5" t="s">
         <v>1069</v>
       </c>
       <c r="C680" s="2"/>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A681" s="2"/>
       <c r="B681" s="5" t="s">
         <v>1070</v>
       </c>
       <c r="C681" s="2"/>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A682" s="2"/>
       <c r="B682" s="5" t="s">
         <v>1071</v>
       </c>
       <c r="C682" s="2"/>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A683" s="2"/>
       <c r="B683" s="5" t="s">
         <v>1072</v>
       </c>
       <c r="C683" s="2"/>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A684" s="2" t="s">
         <v>461</v>
       </c>
@@ -9782,28 +9785,28 @@
         <v>290</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A685" s="2"/>
       <c r="B685" s="5" t="s">
         <v>1073</v>
       </c>
       <c r="C685" s="2"/>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A686" s="2"/>
       <c r="B686" s="5" t="s">
         <v>1074</v>
       </c>
       <c r="C686" s="2"/>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A687" s="2"/>
       <c r="B687" s="5" t="s">
         <v>1075</v>
       </c>
       <c r="C687" s="2"/>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A688" s="2" t="s">
         <v>462</v>
       </c>
@@ -9814,28 +9817,28 @@
         <v>306</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A689" s="2"/>
       <c r="B689" s="5" t="s">
         <v>1076</v>
       </c>
       <c r="C689" s="2"/>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A690" s="2"/>
       <c r="B690" s="5" t="s">
         <v>1077</v>
       </c>
       <c r="C690" s="2"/>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A691" s="2"/>
       <c r="B691" s="5" t="s">
         <v>1078</v>
       </c>
       <c r="C691" s="2"/>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A692" s="2" t="s">
         <v>463</v>
       </c>
@@ -9846,28 +9849,28 @@
         <v>304</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A693" s="2"/>
       <c r="B693" s="5" t="s">
         <v>1079</v>
       </c>
       <c r="C693" s="2"/>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A694" s="2"/>
       <c r="B694" s="5" t="s">
         <v>1080</v>
       </c>
       <c r="C694" s="2"/>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A695" s="2"/>
       <c r="B695" s="5" t="s">
         <v>1081</v>
       </c>
       <c r="C695" s="2"/>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A696" s="2" t="s">
         <v>464</v>
       </c>
@@ -9878,28 +9881,28 @@
         <v>309</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A697" s="2"/>
       <c r="B697" s="5" t="s">
         <v>1082</v>
       </c>
       <c r="C697" s="2"/>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A698" s="2"/>
       <c r="B698" s="5" t="s">
         <v>1083</v>
       </c>
       <c r="C698" s="2"/>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A699" s="2"/>
       <c r="B699" s="5" t="s">
         <v>1084</v>
       </c>
       <c r="C699" s="2"/>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A700" s="2" t="s">
         <v>465</v>
       </c>
@@ -9910,28 +9913,28 @@
         <v>310</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A701" s="2"/>
       <c r="B701" s="5" t="s">
         <v>1085</v>
       </c>
       <c r="C701" s="2"/>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A702" s="2"/>
       <c r="B702" s="5" t="s">
         <v>1086</v>
       </c>
       <c r="C702" s="2"/>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A703" s="2"/>
       <c r="B703" s="5" t="s">
         <v>1087</v>
       </c>
       <c r="C703" s="2"/>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A704" s="2" t="s">
         <v>466</v>
       </c>
@@ -9942,28 +9945,28 @@
         <v>296</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A705" s="2"/>
       <c r="B705" s="5" t="s">
         <v>1088</v>
       </c>
       <c r="C705" s="2"/>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A706" s="2"/>
       <c r="B706" s="5" t="s">
         <v>1089</v>
       </c>
       <c r="C706" s="2"/>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A707" s="2"/>
       <c r="B707" s="5" t="s">
         <v>1090</v>
       </c>
       <c r="C707" s="2"/>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A708" s="2" t="s">
         <v>467</v>
       </c>
@@ -9974,28 +9977,28 @@
         <v>305</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A709" s="2"/>
       <c r="B709" s="5" t="s">
         <v>1091</v>
       </c>
       <c r="C709" s="2"/>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A710" s="2"/>
       <c r="B710" s="5" t="s">
         <v>1092</v>
       </c>
       <c r="C710" s="2"/>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A711" s="2"/>
       <c r="B711" s="5" t="s">
         <v>1093</v>
       </c>
       <c r="C711" s="2"/>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A712" s="2" t="s">
         <v>468</v>
       </c>
@@ -10006,28 +10009,28 @@
         <v>311</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A713" s="2"/>
       <c r="B713" s="5" t="s">
         <v>1094</v>
       </c>
       <c r="C713" s="2"/>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A714" s="2"/>
       <c r="B714" s="5" t="s">
         <v>1095</v>
       </c>
       <c r="C714" s="2"/>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A715" s="2"/>
       <c r="B715" s="5" t="s">
         <v>1096</v>
       </c>
       <c r="C715" s="2"/>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A716" s="2" t="s">
         <v>469</v>
       </c>
@@ -10038,35 +10041,35 @@
         <v>312</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A717" s="2"/>
       <c r="B717" s="5" t="s">
         <v>1097</v>
       </c>
       <c r="C717" s="2"/>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A718" s="2"/>
       <c r="B718" s="5" t="s">
         <v>1098</v>
       </c>
       <c r="C718" s="2"/>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A719" s="2"/>
       <c r="B719" s="5" t="s">
         <v>1099</v>
       </c>
       <c r="C719" s="2"/>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A720" s="2"/>
       <c r="B720" s="5" t="s">
         <v>1100</v>
       </c>
       <c r="C720" s="2"/>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A721" s="2" t="s">
         <v>470</v>
       </c>
@@ -10077,42 +10080,42 @@
         <v>313</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A722" s="2"/>
       <c r="B722" s="5" t="s">
         <v>1101</v>
       </c>
       <c r="C722" s="2"/>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A723" s="2"/>
       <c r="B723" s="5" t="s">
         <v>1102</v>
       </c>
       <c r="C723" s="2"/>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A724" s="2"/>
       <c r="B724" s="5" t="s">
         <v>1103</v>
       </c>
       <c r="C724" s="2"/>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A725" s="2"/>
       <c r="B725" s="5" t="s">
         <v>1104</v>
       </c>
       <c r="C725" s="2"/>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A726" s="2"/>
       <c r="B726" s="5" t="s">
         <v>1105</v>
       </c>
       <c r="C726" s="2"/>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A727" s="2" t="s">
         <v>471</v>
       </c>
@@ -10123,28 +10126,28 @@
         <v>314</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A728" s="2"/>
       <c r="B728" s="5" t="s">
         <v>1106</v>
       </c>
       <c r="C728" s="2"/>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A729" s="2"/>
       <c r="B729" s="5" t="s">
         <v>1107</v>
       </c>
       <c r="C729" s="2"/>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A730" s="2"/>
       <c r="B730" s="5" t="s">
         <v>1108</v>
       </c>
       <c r="C730" s="2"/>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A731" s="2" t="s">
         <v>472</v>
       </c>
@@ -10155,28 +10158,28 @@
         <v>315</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A732" s="2"/>
       <c r="B732" s="5" t="s">
         <v>1109</v>
       </c>
       <c r="C732" s="2"/>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A733" s="2"/>
       <c r="B733" s="5" t="s">
         <v>1110</v>
       </c>
       <c r="C733" s="2"/>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A734" s="2"/>
       <c r="B734" s="5" t="s">
         <v>1111</v>
       </c>
       <c r="C734" s="2"/>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A735" s="2" t="s">
         <v>473</v>
       </c>
@@ -10187,21 +10190,21 @@
         <v>316</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A736" s="2"/>
       <c r="B736" s="5" t="s">
         <v>1112</v>
       </c>
       <c r="C736" s="2"/>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A737" s="2"/>
       <c r="B737" s="5" t="s">
         <v>1113</v>
       </c>
       <c r="C737" s="2"/>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A738" s="2" t="s">
         <v>474</v>
       </c>
@@ -10212,14 +10215,14 @@
         <v>153</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A739" s="2"/>
       <c r="B739" s="5" t="s">
         <v>1114</v>
       </c>
       <c r="C739" s="5"/>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A740" s="2" t="s">
         <v>475</v>
       </c>
@@ -10230,14 +10233,14 @@
         <v>155</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A741" s="2"/>
       <c r="B741" s="5" t="s">
         <v>1115</v>
       </c>
       <c r="C741" s="2"/>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A742" s="2" t="s">
         <v>476</v>
       </c>
@@ -10248,14 +10251,14 @@
         <v>135</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A743" s="2"/>
       <c r="B743" s="5" t="s">
         <v>1116</v>
       </c>
       <c r="C743" s="5"/>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A744" s="2" t="s">
         <v>477</v>
       </c>
@@ -10266,14 +10269,14 @@
         <v>158</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A745" s="2"/>
       <c r="B745" s="5" t="s">
         <v>1117</v>
       </c>
       <c r="C745" s="5"/>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A746" s="2" t="s">
         <v>478</v>
       </c>
@@ -10284,14 +10287,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A747" s="2"/>
       <c r="B747" s="5" t="s">
         <v>1118</v>
       </c>
       <c r="C747" s="5"/>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A748" s="2" t="s">
         <v>479</v>
       </c>
@@ -10302,14 +10305,14 @@
         <v>161</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A749" s="2"/>
       <c r="B749" s="5" t="s">
         <v>1119</v>
       </c>
       <c r="C749" s="5"/>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A750" s="2" t="s">
         <v>480</v>
       </c>
@@ -10320,21 +10323,21 @@
         <v>164</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A751" s="2"/>
       <c r="B751" s="2" t="s">
         <v>1121</v>
       </c>
       <c r="C751" s="2"/>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A752" s="2"/>
       <c r="B752" s="2" t="s">
         <v>1120</v>
       </c>
       <c r="C752" s="2"/>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A753" s="2" t="s">
         <v>481</v>
       </c>
@@ -10345,35 +10348,35 @@
         <v>166</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A754" s="2"/>
       <c r="B754" s="2" t="s">
         <v>1122</v>
       </c>
       <c r="C754" s="2"/>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A755" s="2"/>
       <c r="B755" s="2" t="s">
         <v>1123</v>
       </c>
       <c r="C755" s="2"/>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A756" s="2"/>
       <c r="B756" s="2" t="s">
         <v>1124</v>
       </c>
       <c r="C756" s="2"/>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A757" s="2"/>
       <c r="B757" s="2" t="s">
         <v>1125</v>
       </c>
       <c r="C757" s="2"/>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A758" s="2" t="s">
         <v>482</v>
       </c>
@@ -10384,28 +10387,28 @@
         <v>168</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A759" s="2"/>
       <c r="B759" s="5" t="s">
         <v>1126</v>
       </c>
       <c r="C759" s="5"/>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A760" s="2"/>
       <c r="B760" s="5" t="s">
         <v>1127</v>
       </c>
       <c r="C760" s="5"/>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A761" s="2"/>
       <c r="B761" s="5" t="s">
         <v>1128</v>
       </c>
       <c r="C761" s="5"/>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A762" s="2" t="s">
         <v>483</v>
       </c>
@@ -10416,28 +10419,28 @@
         <v>170</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A763" s="2"/>
       <c r="B763" s="5" t="s">
         <v>1129</v>
       </c>
       <c r="C763" s="5"/>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A764" s="2"/>
       <c r="B764" s="5" t="s">
         <v>1130</v>
       </c>
       <c r="C764" s="5"/>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A765" s="2"/>
       <c r="B765" s="5" t="s">
         <v>1131</v>
       </c>
       <c r="C765" s="5"/>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A766" s="2" t="s">
         <v>484</v>
       </c>
@@ -10448,14 +10451,14 @@
         <v>172</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A767" s="2"/>
       <c r="B767" s="5" t="s">
         <v>1132</v>
       </c>
       <c r="C767" s="5"/>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A768" s="2" t="s">
         <v>485</v>
       </c>
@@ -10466,28 +10469,28 @@
         <v>174</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A769" s="2"/>
       <c r="B769" s="5" t="s">
         <v>1133</v>
       </c>
       <c r="C769" s="5"/>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A770" s="2"/>
       <c r="B770" s="5" t="s">
         <v>1134</v>
       </c>
       <c r="C770" s="5"/>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A771" s="2"/>
       <c r="B771" s="5" t="s">
         <v>1135</v>
       </c>
       <c r="C771" s="5"/>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A772" s="2" t="s">
         <v>486</v>
       </c>
@@ -10498,42 +10501,42 @@
         <v>176</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A773" s="2"/>
       <c r="B773" s="5" t="s">
         <v>1136</v>
       </c>
       <c r="C773" s="5"/>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A774" s="2"/>
       <c r="B774" s="5" t="s">
         <v>1137</v>
       </c>
       <c r="C774" s="5"/>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A775" s="2"/>
       <c r="B775" s="5" t="s">
         <v>1138</v>
       </c>
       <c r="C775" s="5"/>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A776" s="2"/>
       <c r="B776" s="5" t="s">
         <v>1139</v>
       </c>
       <c r="C776" s="5"/>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A777" s="2"/>
       <c r="B777" s="5" t="s">
         <v>1140</v>
       </c>
       <c r="C777" s="5"/>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A778" s="2" t="s">
         <v>487</v>
       </c>
@@ -10544,35 +10547,35 @@
         <v>178</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A779" s="2"/>
       <c r="B779" s="5" t="s">
         <v>1141</v>
       </c>
       <c r="C779" s="5"/>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A780" s="2"/>
       <c r="B780" s="5" t="s">
         <v>1142</v>
       </c>
       <c r="C780" s="5"/>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A781" s="2"/>
       <c r="B781" s="5" t="s">
         <v>1143</v>
       </c>
       <c r="C781" s="5"/>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A782" s="2"/>
       <c r="B782" s="5" t="s">
         <v>1144</v>
       </c>
       <c r="C782" s="5"/>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A783" s="2" t="s">
         <v>488</v>
       </c>
@@ -10583,35 +10586,35 @@
         <v>180</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A784" s="2"/>
       <c r="B784" s="5" t="s">
         <v>1145</v>
       </c>
       <c r="C784" s="2"/>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A785" s="2"/>
       <c r="B785" s="5" t="s">
         <v>1147</v>
       </c>
       <c r="C785" s="2"/>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A786" s="2"/>
       <c r="B786" s="5" t="s">
         <v>1146</v>
       </c>
       <c r="C786" s="2"/>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A787" s="2"/>
       <c r="B787" s="5" t="s">
         <v>1148</v>
       </c>
       <c r="C787" s="2"/>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A788" s="2" t="s">
         <v>489</v>
       </c>
@@ -10622,28 +10625,28 @@
         <v>182</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A789" s="2"/>
       <c r="B789" s="5" t="s">
         <v>1149</v>
       </c>
       <c r="C789" s="2"/>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A790" s="2"/>
       <c r="B790" s="5" t="s">
         <v>1150</v>
       </c>
       <c r="C790" s="2"/>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A791" s="2"/>
       <c r="B791" s="5" t="s">
         <v>1151</v>
       </c>
       <c r="C791" s="2"/>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A792" s="2" t="s">
         <v>490</v>
       </c>
@@ -10654,35 +10657,35 @@
         <v>184</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A793" s="2"/>
       <c r="B793" s="5" t="s">
         <v>1152</v>
       </c>
       <c r="C793" s="2"/>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A794" s="2"/>
       <c r="B794" s="5" t="s">
         <v>1153</v>
       </c>
       <c r="C794" s="2"/>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A795" s="2"/>
       <c r="B795" s="5" t="s">
         <v>1154</v>
       </c>
       <c r="C795" s="2"/>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A796" s="2"/>
       <c r="B796" s="5" t="s">
         <v>1155</v>
       </c>
       <c r="C796" s="2"/>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A797" s="2" t="s">
         <v>491</v>
       </c>
@@ -10693,14 +10696,14 @@
         <v>186</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A798" s="2"/>
       <c r="B798" s="5" t="s">
         <v>1156</v>
       </c>
       <c r="C798" s="2"/>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A799" s="2" t="s">
         <v>492</v>
       </c>
@@ -10711,21 +10714,21 @@
         <v>188</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A800" s="2"/>
       <c r="B800" s="5" t="s">
         <v>1157</v>
       </c>
       <c r="C800" s="2"/>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A801" s="2"/>
       <c r="B801" s="5" t="s">
         <v>1158</v>
       </c>
       <c r="C801" s="2"/>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A802" s="2" t="s">
         <v>493</v>
       </c>
@@ -10736,28 +10739,28 @@
         <v>190</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A803" s="2"/>
       <c r="B803" s="5" t="s">
         <v>1159</v>
       </c>
       <c r="C803" s="3"/>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A804" s="2"/>
       <c r="B804" s="5" t="s">
         <v>1160</v>
       </c>
       <c r="C804" s="2"/>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A805" s="2"/>
       <c r="B805" s="5" t="s">
         <v>1161</v>
       </c>
       <c r="C805" s="2"/>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A806" s="2" t="s">
         <v>494</v>
       </c>
@@ -10768,14 +10771,14 @@
         <v>191</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A807" s="2"/>
       <c r="B807" s="5" t="s">
         <v>1162</v>
       </c>
       <c r="C807" s="2"/>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A808" s="2" t="s">
         <v>495</v>
       </c>
@@ -10786,35 +10789,35 @@
         <v>193</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A809" s="2"/>
       <c r="B809" s="5" t="s">
         <v>1163</v>
       </c>
       <c r="C809" s="2"/>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A810" s="2"/>
       <c r="B810" s="5" t="s">
         <v>1164</v>
       </c>
       <c r="C810" s="2"/>
     </row>
-    <row r="811" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A811" s="10"/>
       <c r="B811" s="14" t="s">
         <v>1165</v>
       </c>
       <c r="C811" s="10"/>
     </row>
-    <row r="812" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A812" s="10"/>
       <c r="B812" s="14" t="s">
         <v>1166</v>
       </c>
       <c r="C812" s="10"/>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A813" s="2" t="s">
         <v>496</v>
       </c>
@@ -10825,28 +10828,28 @@
         <v>318</v>
       </c>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A814" s="2"/>
       <c r="B814" s="5" t="s">
         <v>1167</v>
       </c>
       <c r="C814" s="2"/>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A815" s="2"/>
       <c r="B815" s="5" t="s">
         <v>1168</v>
       </c>
       <c r="C815" s="2"/>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A816" s="2"/>
       <c r="B816" s="5" t="s">
         <v>1169</v>
       </c>
       <c r="C816" s="2"/>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A817" s="2" t="s">
         <v>497</v>
       </c>
@@ -10857,42 +10860,42 @@
         <v>320</v>
       </c>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A818" s="2"/>
       <c r="B818" s="5" t="s">
         <v>1170</v>
       </c>
       <c r="C818" s="2"/>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A819" s="2"/>
       <c r="B819" s="5" t="s">
         <v>1171</v>
       </c>
       <c r="C819" s="2"/>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A820" s="2"/>
       <c r="B820" s="5" t="s">
         <v>1172</v>
       </c>
       <c r="C820" s="2"/>
     </row>
-    <row r="821" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A821" s="2"/>
       <c r="B821" s="5" t="s">
         <v>1173</v>
       </c>
       <c r="C821" s="2"/>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A822" s="2"/>
       <c r="B822" s="5" t="s">
         <v>1174</v>
       </c>
       <c r="C822" s="2"/>
     </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A823" s="2" t="s">
         <v>498</v>
       </c>
@@ -10903,35 +10906,35 @@
         <v>322</v>
       </c>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A824" s="2"/>
       <c r="B824" s="5" t="s">
         <v>1176</v>
       </c>
       <c r="C824" s="5"/>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A825" s="2"/>
       <c r="B825" s="5" t="s">
         <v>1175</v>
       </c>
       <c r="C825" s="5"/>
     </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A826" s="2"/>
       <c r="B826" s="5" t="s">
         <v>1177</v>
       </c>
       <c r="C826" s="5"/>
     </row>
-    <row r="827" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A827" s="2"/>
       <c r="B827" s="5" t="s">
         <v>1178</v>
       </c>
       <c r="C827" s="5"/>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A828" s="2" t="s">
         <v>499</v>
       </c>
@@ -10942,28 +10945,28 @@
         <v>326</v>
       </c>
     </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A829" s="2"/>
       <c r="B829" s="5" t="s">
         <v>1179</v>
       </c>
       <c r="C829" s="2"/>
     </row>
-    <row r="830" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A830" s="2"/>
       <c r="B830" s="5" t="s">
         <v>1180</v>
       </c>
       <c r="C830" s="2"/>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A831" s="2"/>
       <c r="B831" s="5" t="s">
         <v>1181</v>
       </c>
       <c r="C831" s="2"/>
     </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A832" s="2" t="s">
         <v>500</v>
       </c>
@@ -10974,35 +10977,35 @@
         <v>325</v>
       </c>
     </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A833" s="2"/>
       <c r="B833" s="5" t="s">
         <v>1182</v>
       </c>
       <c r="C833" s="2"/>
     </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A834" s="2"/>
       <c r="B834" s="5" t="s">
         <v>1183</v>
       </c>
       <c r="C834" s="2"/>
     </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A835" s="2"/>
       <c r="B835" s="5" t="s">
         <v>1184</v>
       </c>
       <c r="C835" s="2"/>
     </row>
-    <row r="836" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A836" s="2"/>
       <c r="B836" s="5" t="s">
         <v>1185</v>
       </c>
       <c r="C836" s="2"/>
     </row>
-    <row r="837" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A837" s="2" t="s">
         <v>501</v>
       </c>
@@ -11013,28 +11016,28 @@
         <v>328</v>
       </c>
     </row>
-    <row r="838" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A838" s="2"/>
       <c r="B838" s="5" t="s">
         <v>1186</v>
       </c>
       <c r="C838" s="9"/>
     </row>
-    <row r="839" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A839" s="2"/>
       <c r="B839" s="5" t="s">
         <v>1187</v>
       </c>
       <c r="C839" s="9"/>
     </row>
-    <row r="840" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A840" s="2"/>
       <c r="B840" s="5" t="s">
         <v>1188</v>
       </c>
       <c r="C840" s="9"/>
     </row>
-    <row r="841" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A841" s="2" t="s">
         <v>502</v>
       </c>
@@ -11045,42 +11048,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="842" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A842" s="2"/>
       <c r="B842" s="2" t="s">
         <v>1189</v>
       </c>
       <c r="C842" s="2"/>
     </row>
-    <row r="843" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A843" s="2"/>
       <c r="B843" s="2" t="s">
         <v>1191</v>
       </c>
       <c r="C843" s="2"/>
     </row>
-    <row r="844" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A844" s="2"/>
       <c r="B844" s="2" t="s">
         <v>1190</v>
       </c>
       <c r="C844" s="2"/>
     </row>
-    <row r="845" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A845" s="2"/>
       <c r="B845" s="2" t="s">
         <v>1192</v>
       </c>
       <c r="C845" s="2"/>
     </row>
-    <row r="846" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A846" s="2"/>
       <c r="B846" s="2" t="s">
         <v>1199</v>
       </c>
       <c r="C846" s="2"/>
     </row>
-    <row r="847" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A847" s="2" t="s">
         <v>503</v>
       </c>
@@ -11091,49 +11094,49 @@
         <v>6</v>
       </c>
     </row>
-    <row r="848" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A848" s="2"/>
       <c r="B848" s="2" t="s">
         <v>1193</v>
       </c>
       <c r="C848" s="2"/>
     </row>
-    <row r="849" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A849" s="2"/>
       <c r="B849" s="2" t="s">
         <v>1194</v>
       </c>
       <c r="C849" s="2"/>
     </row>
-    <row r="850" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A850" s="2"/>
       <c r="B850" s="2" t="s">
         <v>1195</v>
       </c>
       <c r="C850" s="2"/>
     </row>
-    <row r="851" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A851" s="2"/>
       <c r="B851" s="2" t="s">
         <v>1197</v>
       </c>
       <c r="C851" s="2"/>
     </row>
-    <row r="852" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A852" s="2"/>
       <c r="B852" s="2" t="s">
         <v>1198</v>
       </c>
       <c r="C852" s="2"/>
     </row>
-    <row r="853" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A853" s="2"/>
       <c r="B853" s="2" t="s">
         <v>1196</v>
       </c>
       <c r="C853" s="2"/>
     </row>
-    <row r="854" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A854" s="2" t="s">
         <v>504</v>
       </c>
@@ -11144,29 +11147,40 @@
         <v>8</v>
       </c>
     </row>
-    <row r="855" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B855" s="2" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="856" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B856" s="2" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="857" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B857" s="2" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="858" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B858" s="2" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="859" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B859" s="2" t="s">
         <v>1204</v>
+      </c>
+    </row>
+    <row r="860" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A860" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B860" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C860" s="1" t="s">
+        <v>1205</v>
       </c>
     </row>
   </sheetData>
